--- a/外部設計書_機能名.xlsx
+++ b/外部設計書_機能名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1136AA70-A163-4C5D-A622-1D2E02FF8193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AC5E3-994D-471A-854F-C6B3B0A7064B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="15" windowWidth="14760" windowHeight="10875" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -890,6 +890,28 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>文字のサイズレベルを３段階に分けて書く、またボールド、ノーマルも使い分ける</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -898,7 +920,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -976,6 +998,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1300,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1399,6 +1429,86 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,7 +1593,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,52 +1611,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,73 +1635,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10609,7 +10642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:V2"/>
     </sheetView>
   </sheetViews>
@@ -10619,146 +10652,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="62" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="59" t="s">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -15230,255 +15263,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45230A-E710-47D9-94CB-FFF560871DAC}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AE2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53:AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="84"/>
+    <col min="1" max="16384" width="3.625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="81" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="83"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="111"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="85" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="87" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="89"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="118"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="90" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="109"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="96"/>
+      <c r="B4" s="46"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="99"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="49"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="100"/>
-      <c r="B6" s="97" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="101"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="51"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -15515,12 +15548,12 @@
       <c r="AJ7" s="26"/>
       <c r="AK7" s="26"/>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -15557,12 +15590,12 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="26"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -15599,12 +15632,12 @@
       <c r="AJ9" s="28"/>
       <c r="AK9" s="28"/>
       <c r="AL9" s="28"/>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="101"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -15641,12 +15674,12 @@
       <c r="AJ10" s="28"/>
       <c r="AK10" s="28"/>
       <c r="AL10" s="28"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="101"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -15683,12 +15716,12 @@
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
       <c r="AL11" s="28"/>
-      <c r="AM11" s="101"/>
-      <c r="AN11" s="101"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -15725,12 +15758,12 @@
       <c r="AJ12" s="28"/>
       <c r="AK12" s="28"/>
       <c r="AL12" s="28"/>
-      <c r="AM12" s="101"/>
-      <c r="AN12" s="101"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="28"/>
@@ -15767,12 +15800,12 @@
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
       <c r="AL13" s="28"/>
-      <c r="AM13" s="101"/>
-      <c r="AN13" s="101"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="28"/>
@@ -15809,12 +15842,12 @@
       <c r="AJ14" s="28"/>
       <c r="AK14" s="28"/>
       <c r="AL14" s="28"/>
-      <c r="AM14" s="101"/>
-      <c r="AN14" s="101"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="28"/>
@@ -15851,12 +15884,12 @@
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
       <c r="AL15" s="28"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="101"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="28"/>
@@ -15893,12 +15926,12 @@
       <c r="AJ16" s="28"/>
       <c r="AK16" s="28"/>
       <c r="AL16" s="28"/>
-      <c r="AM16" s="101"/>
-      <c r="AN16" s="101"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="28"/>
@@ -15935,12 +15968,12 @@
       <c r="AJ17" s="28"/>
       <c r="AK17" s="28"/>
       <c r="AL17" s="28"/>
-      <c r="AM17" s="101"/>
-      <c r="AN17" s="101"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="28"/>
@@ -15977,12 +16010,12 @@
       <c r="AJ18" s="28"/>
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
-      <c r="AM18" s="101"/>
-      <c r="AN18" s="101"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="28"/>
@@ -16019,12 +16052,12 @@
       <c r="AJ19" s="28"/>
       <c r="AK19" s="28"/>
       <c r="AL19" s="28"/>
-      <c r="AM19" s="101"/>
-      <c r="AN19" s="101"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="28"/>
@@ -16061,12 +16094,12 @@
       <c r="AJ20" s="28"/>
       <c r="AK20" s="28"/>
       <c r="AL20" s="28"/>
-      <c r="AM20" s="101"/>
-      <c r="AN20" s="101"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="28"/>
@@ -16103,12 +16136,12 @@
       <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
       <c r="AL21" s="28"/>
-      <c r="AM21" s="101"/>
-      <c r="AN21" s="101"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="28"/>
@@ -16145,12 +16178,12 @@
       <c r="AJ22" s="28"/>
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
-      <c r="AM22" s="101"/>
-      <c r="AN22" s="101"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="28"/>
@@ -16187,12 +16220,12 @@
       <c r="AJ23" s="28"/>
       <c r="AK23" s="28"/>
       <c r="AL23" s="28"/>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="101"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="28"/>
@@ -16229,12 +16262,12 @@
       <c r="AJ24" s="28"/>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="101"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="28"/>
@@ -16271,12 +16304,12 @@
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
       <c r="AL25" s="28"/>
-      <c r="AM25" s="101"/>
-      <c r="AN25" s="101"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="28"/>
@@ -16313,12 +16346,12 @@
       <c r="AJ26" s="28"/>
       <c r="AK26" s="28"/>
       <c r="AL26" s="28"/>
-      <c r="AM26" s="101"/>
-      <c r="AN26" s="101"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="28"/>
@@ -16355,12 +16388,12 @@
       <c r="AJ27" s="28"/>
       <c r="AK27" s="28"/>
       <c r="AL27" s="28"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="101"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="28"/>
@@ -16397,12 +16430,12 @@
       <c r="AJ28" s="28"/>
       <c r="AK28" s="28"/>
       <c r="AL28" s="28"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="101"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="28"/>
@@ -16439,12 +16472,12 @@
       <c r="AJ29" s="28"/>
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="101"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="100"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="28"/>
@@ -16481,12 +16514,12 @@
       <c r="AJ30" s="28"/>
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
-      <c r="AM30" s="101"/>
-      <c r="AN30" s="101"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="100"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="28"/>
@@ -16523,12 +16556,12 @@
       <c r="AJ31" s="28"/>
       <c r="AK31" s="28"/>
       <c r="AL31" s="28"/>
-      <c r="AM31" s="101"/>
-      <c r="AN31" s="101"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="28"/>
@@ -16565,12 +16598,12 @@
       <c r="AJ32" s="28"/>
       <c r="AK32" s="28"/>
       <c r="AL32" s="28"/>
-      <c r="AM32" s="101"/>
-      <c r="AN32" s="101"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="28"/>
@@ -16607,12 +16640,12 @@
       <c r="AJ33" s="28"/>
       <c r="AK33" s="28"/>
       <c r="AL33" s="28"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="101"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="28"/>
@@ -16649,12 +16682,12 @@
       <c r="AJ34" s="28"/>
       <c r="AK34" s="28"/>
       <c r="AL34" s="28"/>
-      <c r="AM34" s="101"/>
-      <c r="AN34" s="101"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
     </row>
     <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="28"/>
@@ -16691,12 +16724,12 @@
       <c r="AJ35" s="28"/>
       <c r="AK35" s="28"/>
       <c r="AL35" s="28"/>
-      <c r="AM35" s="101"/>
-      <c r="AN35" s="101"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="28"/>
@@ -16733,12 +16766,12 @@
       <c r="AJ36" s="28"/>
       <c r="AK36" s="28"/>
       <c r="AL36" s="28"/>
-      <c r="AM36" s="101"/>
-      <c r="AN36" s="101"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -16775,182 +16808,182 @@
       <c r="AJ37" s="28"/>
       <c r="AK37" s="28"/>
       <c r="AL37" s="28"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="101"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="100"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="103"/>
-      <c r="W38" s="103"/>
-      <c r="X38" s="103"/>
-      <c r="Y38" s="103"/>
-      <c r="Z38" s="103"/>
-      <c r="AA38" s="103"/>
-      <c r="AB38" s="103"/>
-      <c r="AC38" s="103"/>
-      <c r="AD38" s="103"/>
-      <c r="AE38" s="103"/>
-      <c r="AF38" s="103"/>
-      <c r="AG38" s="103"/>
-      <c r="AH38" s="103"/>
-      <c r="AI38" s="103"/>
-      <c r="AJ38" s="103"/>
-      <c r="AK38" s="103"/>
-      <c r="AL38" s="103"/>
-      <c r="AM38" s="104"/>
-      <c r="AN38" s="101"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="51"/>
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="102"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="103"/>
-      <c r="AA39" s="103"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="103"/>
-      <c r="AF39" s="103"/>
-      <c r="AG39" s="103"/>
-      <c r="AH39" s="103"/>
-      <c r="AI39" s="103"/>
-      <c r="AJ39" s="103"/>
-      <c r="AK39" s="103"/>
-      <c r="AL39" s="103"/>
-      <c r="AM39" s="103"/>
-      <c r="AN39" s="104"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="54"/>
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="98"/>
-      <c r="S40" s="98"/>
-      <c r="T40" s="98"/>
-      <c r="U40" s="98"/>
-      <c r="V40" s="98"/>
-      <c r="W40" s="98"/>
-      <c r="X40" s="98"/>
-      <c r="Y40" s="98"/>
-      <c r="Z40" s="98"/>
-      <c r="AA40" s="98"/>
-      <c r="AB40" s="98"/>
-      <c r="AC40" s="98"/>
-      <c r="AD40" s="98"/>
-      <c r="AE40" s="98"/>
-      <c r="AF40" s="98"/>
-      <c r="AG40" s="98"/>
-      <c r="AH40" s="98"/>
-      <c r="AI40" s="98"/>
-      <c r="AJ40" s="98"/>
-      <c r="AK40" s="98"/>
-      <c r="AL40" s="98"/>
-      <c r="AM40" s="98"/>
-      <c r="AN40" s="99"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="48"/>
+      <c r="AL40" s="48"/>
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="49"/>
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="100"/>
-      <c r="B41" s="97" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="98"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="98"/>
-      <c r="V41" s="98"/>
-      <c r="W41" s="98"/>
-      <c r="X41" s="98"/>
-      <c r="Y41" s="98"/>
-      <c r="Z41" s="98"/>
-      <c r="AA41" s="98"/>
-      <c r="AB41" s="98"/>
-      <c r="AC41" s="98"/>
-      <c r="AD41" s="98"/>
-      <c r="AE41" s="98"/>
-      <c r="AF41" s="98"/>
-      <c r="AG41" s="98"/>
-      <c r="AH41" s="98"/>
-      <c r="AI41" s="98"/>
-      <c r="AJ41" s="98"/>
-      <c r="AK41" s="98"/>
-      <c r="AL41" s="98"/>
-      <c r="AM41" s="99"/>
-      <c r="AN41" s="101"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="48"/>
+      <c r="AF41" s="48"/>
+      <c r="AG41" s="48"/>
+      <c r="AH41" s="48"/>
+      <c r="AI41" s="48"/>
+      <c r="AJ41" s="48"/>
+      <c r="AK41" s="48"/>
+      <c r="AL41" s="48"/>
+      <c r="AM41" s="49"/>
+      <c r="AN41" s="51"/>
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="100"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
@@ -16987,14 +17020,14 @@
       <c r="AJ42" s="26"/>
       <c r="AK42" s="26"/>
       <c r="AL42" s="26"/>
-      <c r="AM42" s="101"/>
-      <c r="AN42" s="101"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="100"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="26"/>
@@ -17031,15 +17064,15 @@
       <c r="AJ43" s="26"/>
       <c r="AK43" s="26"/>
       <c r="AL43" s="26"/>
-      <c r="AM43" s="101"/>
-      <c r="AN43" s="101"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="100"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="65" t="s">
         <v>48</v>
       </c>
       <c r="F44" s="28"/>
@@ -17075,15 +17108,15 @@
       <c r="AJ44" s="28"/>
       <c r="AK44" s="28"/>
       <c r="AL44" s="28"/>
-      <c r="AM44" s="101"/>
-      <c r="AN44" s="101"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="51"/>
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="100"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="115" t="s">
+      <c r="E45" s="65" t="s">
         <v>74</v>
       </c>
       <c r="F45" s="28"/>
@@ -17119,12 +17152,12 @@
       <c r="AJ45" s="28"/>
       <c r="AK45" s="28"/>
       <c r="AL45" s="28"/>
-      <c r="AM45" s="101"/>
-      <c r="AN45" s="101"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="51"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
@@ -17161,12 +17194,12 @@
       <c r="AJ46" s="28"/>
       <c r="AK46" s="28"/>
       <c r="AL46" s="28"/>
-      <c r="AM46" s="101"/>
-      <c r="AN46" s="101"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="51"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="100"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="32" t="s">
@@ -17205,16 +17238,16 @@
       <c r="AJ47" s="28"/>
       <c r="AK47" s="28"/>
       <c r="AL47" s="28"/>
-      <c r="AM47" s="101"/>
-      <c r="AN47" s="101"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="51"/>
     </row>
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="100"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="76" t="s">
+      <c r="F48" s="42" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="28"/>
@@ -17249,12 +17282,12 @@
       <c r="AJ48" s="28"/>
       <c r="AK48" s="28"/>
       <c r="AL48" s="28"/>
-      <c r="AM48" s="101"/>
-      <c r="AN48" s="101"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="100"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="28"/>
@@ -17291,12 +17324,12 @@
       <c r="AJ49" s="28"/>
       <c r="AK49" s="28"/>
       <c r="AL49" s="28"/>
-      <c r="AM49" s="101"/>
-      <c r="AN49" s="101"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="51"/>
     </row>
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="100"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="32" t="s">
@@ -17335,16 +17368,16 @@
       <c r="AJ50" s="28"/>
       <c r="AK50" s="28"/>
       <c r="AL50" s="28"/>
-      <c r="AM50" s="101"/>
-      <c r="AN50" s="101"/>
+      <c r="AM50" s="51"/>
+      <c r="AN50" s="51"/>
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="100"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="28"/>
-      <c r="F51" s="76" t="s">
+      <c r="F51" s="42" t="s">
         <v>52</v>
       </c>
       <c r="G51" s="28"/>
@@ -17379,12 +17412,12 @@
       <c r="AJ51" s="28"/>
       <c r="AK51" s="28"/>
       <c r="AL51" s="28"/>
-      <c r="AM51" s="101"/>
-      <c r="AN51" s="101"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="51"/>
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="100"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="28"/>
@@ -17421,12 +17454,12 @@
       <c r="AJ52" s="28"/>
       <c r="AK52" s="28"/>
       <c r="AL52" s="28"/>
-      <c r="AM52" s="101"/>
-      <c r="AN52" s="101"/>
+      <c r="AM52" s="51"/>
+      <c r="AN52" s="51"/>
     </row>
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="100"/>
-      <c r="B53" s="100"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="28"/>
@@ -17440,35 +17473,37 @@
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28"/>
+      <c r="P53" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="120"/>
+      <c r="T53" s="120"/>
+      <c r="U53" s="120"/>
+      <c r="V53" s="120"/>
+      <c r="W53" s="120"/>
+      <c r="X53" s="120"/>
+      <c r="Y53" s="120"/>
+      <c r="Z53" s="120"/>
+      <c r="AA53" s="120"/>
+      <c r="AB53" s="120"/>
+      <c r="AC53" s="120"/>
+      <c r="AD53" s="120"/>
+      <c r="AE53" s="120"/>
+      <c r="AF53" s="120"/>
+      <c r="AG53" s="120"/>
+      <c r="AH53" s="120"/>
+      <c r="AI53" s="120"/>
+      <c r="AJ53" s="120"/>
       <c r="AK53" s="28"/>
       <c r="AL53" s="28"/>
-      <c r="AM53" s="101"/>
-      <c r="AN53" s="101"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="28"/>
@@ -17505,12 +17540,12 @@
       <c r="AJ54" s="28"/>
       <c r="AK54" s="28"/>
       <c r="AL54" s="28"/>
-      <c r="AM54" s="101"/>
-      <c r="AN54" s="101"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="51"/>
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="100"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="28"/>
@@ -17547,12 +17582,12 @@
       <c r="AJ55" s="28"/>
       <c r="AK55" s="28"/>
       <c r="AL55" s="28"/>
-      <c r="AM55" s="101"/>
-      <c r="AN55" s="101"/>
+      <c r="AM55" s="51"/>
+      <c r="AN55" s="51"/>
     </row>
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="100"/>
-      <c r="B56" s="100"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="28"/>
@@ -17589,12 +17624,12 @@
       <c r="AJ56" s="28"/>
       <c r="AK56" s="28"/>
       <c r="AL56" s="28"/>
-      <c r="AM56" s="101"/>
-      <c r="AN56" s="101"/>
+      <c r="AM56" s="51"/>
+      <c r="AN56" s="51"/>
     </row>
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="100"/>
-      <c r="B57" s="100"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="28"/>
@@ -17631,12 +17666,12 @@
       <c r="AJ57" s="28"/>
       <c r="AK57" s="28"/>
       <c r="AL57" s="28"/>
-      <c r="AM57" s="101"/>
-      <c r="AN57" s="101"/>
+      <c r="AM57" s="51"/>
+      <c r="AN57" s="51"/>
     </row>
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="100"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="28"/>
@@ -17673,12 +17708,12 @@
       <c r="AJ58" s="28"/>
       <c r="AK58" s="28"/>
       <c r="AL58" s="28"/>
-      <c r="AM58" s="101"/>
-      <c r="AN58" s="101"/>
+      <c r="AM58" s="51"/>
+      <c r="AN58" s="51"/>
     </row>
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="100"/>
-      <c r="B59" s="100"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="28"/>
@@ -17715,12 +17750,12 @@
       <c r="AJ59" s="28"/>
       <c r="AK59" s="28"/>
       <c r="AL59" s="28"/>
-      <c r="AM59" s="101"/>
-      <c r="AN59" s="101"/>
+      <c r="AM59" s="51"/>
+      <c r="AN59" s="51"/>
     </row>
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="28"/>
@@ -17757,12 +17792,12 @@
       <c r="AJ60" s="28"/>
       <c r="AK60" s="28"/>
       <c r="AL60" s="28"/>
-      <c r="AM60" s="101"/>
-      <c r="AN60" s="101"/>
+      <c r="AM60" s="51"/>
+      <c r="AN60" s="51"/>
     </row>
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="100"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="28"/>
@@ -17799,12 +17834,12 @@
       <c r="AJ61" s="28"/>
       <c r="AK61" s="28"/>
       <c r="AL61" s="28"/>
-      <c r="AM61" s="101"/>
-      <c r="AN61" s="101"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="51"/>
     </row>
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="100"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
       <c r="E62" s="28"/>
@@ -17841,12 +17876,12 @@
       <c r="AJ62" s="28"/>
       <c r="AK62" s="28"/>
       <c r="AL62" s="28"/>
-      <c r="AM62" s="101"/>
-      <c r="AN62" s="101"/>
+      <c r="AM62" s="51"/>
+      <c r="AN62" s="51"/>
     </row>
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="100"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="28"/>
@@ -17883,12 +17918,12 @@
       <c r="AJ63" s="28"/>
       <c r="AK63" s="28"/>
       <c r="AL63" s="28"/>
-      <c r="AM63" s="101"/>
-      <c r="AN63" s="101"/>
+      <c r="AM63" s="51"/>
+      <c r="AN63" s="51"/>
     </row>
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="100"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="28"/>
@@ -17925,12 +17960,12 @@
       <c r="AJ64" s="28"/>
       <c r="AK64" s="28"/>
       <c r="AL64" s="28"/>
-      <c r="AM64" s="101"/>
-      <c r="AN64" s="101"/>
+      <c r="AM64" s="51"/>
+      <c r="AN64" s="51"/>
     </row>
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="28"/>
@@ -17967,12 +18002,12 @@
       <c r="AJ65" s="28"/>
       <c r="AK65" s="28"/>
       <c r="AL65" s="28"/>
-      <c r="AM65" s="101"/>
-      <c r="AN65" s="101"/>
+      <c r="AM65" s="51"/>
+      <c r="AN65" s="51"/>
     </row>
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="28"/>
@@ -18009,12 +18044,12 @@
       <c r="AJ66" s="28"/>
       <c r="AK66" s="28"/>
       <c r="AL66" s="28"/>
-      <c r="AM66" s="101"/>
-      <c r="AN66" s="101"/>
+      <c r="AM66" s="51"/>
+      <c r="AN66" s="51"/>
     </row>
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="100"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="28"/>
@@ -18051,12 +18086,12 @@
       <c r="AJ67" s="28"/>
       <c r="AK67" s="28"/>
       <c r="AL67" s="28"/>
-      <c r="AM67" s="101"/>
-      <c r="AN67" s="101"/>
+      <c r="AM67" s="51"/>
+      <c r="AN67" s="51"/>
     </row>
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="100"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="28"/>
@@ -18093,12 +18128,12 @@
       <c r="AJ68" s="28"/>
       <c r="AK68" s="28"/>
       <c r="AL68" s="28"/>
-      <c r="AM68" s="101"/>
-      <c r="AN68" s="101"/>
+      <c r="AM68" s="51"/>
+      <c r="AN68" s="51"/>
     </row>
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="100"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="28"/>
@@ -18135,12 +18170,12 @@
       <c r="AJ69" s="28"/>
       <c r="AK69" s="28"/>
       <c r="AL69" s="28"/>
-      <c r="AM69" s="101"/>
-      <c r="AN69" s="101"/>
+      <c r="AM69" s="51"/>
+      <c r="AN69" s="51"/>
     </row>
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="100"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="28"/>
@@ -18177,12 +18212,12 @@
       <c r="AJ70" s="28"/>
       <c r="AK70" s="28"/>
       <c r="AL70" s="28"/>
-      <c r="AM70" s="101"/>
-      <c r="AN70" s="101"/>
+      <c r="AM70" s="51"/>
+      <c r="AN70" s="51"/>
     </row>
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="100"/>
-      <c r="B71" s="100"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="28"/>
@@ -18219,12 +18254,12 @@
       <c r="AJ71" s="28"/>
       <c r="AK71" s="28"/>
       <c r="AL71" s="28"/>
-      <c r="AM71" s="101"/>
-      <c r="AN71" s="101"/>
+      <c r="AM71" s="51"/>
+      <c r="AN71" s="51"/>
     </row>
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="100"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="28"/>
@@ -18261,12 +18296,12 @@
       <c r="AJ72" s="28"/>
       <c r="AK72" s="28"/>
       <c r="AL72" s="28"/>
-      <c r="AM72" s="101"/>
-      <c r="AN72" s="101"/>
+      <c r="AM72" s="51"/>
+      <c r="AN72" s="51"/>
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="100"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
@@ -18303,182 +18338,182 @@
       <c r="AJ73" s="28"/>
       <c r="AK73" s="28"/>
       <c r="AL73" s="28"/>
-      <c r="AM73" s="101"/>
-      <c r="AN73" s="101"/>
+      <c r="AM73" s="51"/>
+      <c r="AN73" s="51"/>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="100"/>
-      <c r="B74" s="102"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="103"/>
-      <c r="M74" s="103"/>
-      <c r="N74" s="103"/>
-      <c r="O74" s="103"/>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="103"/>
-      <c r="R74" s="103"/>
-      <c r="S74" s="103"/>
-      <c r="T74" s="103"/>
-      <c r="U74" s="103"/>
-      <c r="V74" s="103"/>
-      <c r="W74" s="103"/>
-      <c r="X74" s="103"/>
-      <c r="Y74" s="103"/>
-      <c r="Z74" s="103"/>
-      <c r="AA74" s="103"/>
-      <c r="AB74" s="103"/>
-      <c r="AC74" s="103"/>
-      <c r="AD74" s="103"/>
-      <c r="AE74" s="103"/>
-      <c r="AF74" s="103"/>
-      <c r="AG74" s="103"/>
-      <c r="AH74" s="103"/>
-      <c r="AI74" s="103"/>
-      <c r="AJ74" s="103"/>
-      <c r="AK74" s="103"/>
-      <c r="AL74" s="103"/>
-      <c r="AM74" s="104"/>
-      <c r="AN74" s="101"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="53"/>
+      <c r="T74" s="53"/>
+      <c r="U74" s="53"/>
+      <c r="V74" s="53"/>
+      <c r="W74" s="53"/>
+      <c r="X74" s="53"/>
+      <c r="Y74" s="53"/>
+      <c r="Z74" s="53"/>
+      <c r="AA74" s="53"/>
+      <c r="AB74" s="53"/>
+      <c r="AC74" s="53"/>
+      <c r="AD74" s="53"/>
+      <c r="AE74" s="53"/>
+      <c r="AF74" s="53"/>
+      <c r="AG74" s="53"/>
+      <c r="AH74" s="53"/>
+      <c r="AI74" s="53"/>
+      <c r="AJ74" s="53"/>
+      <c r="AK74" s="53"/>
+      <c r="AL74" s="53"/>
+      <c r="AM74" s="54"/>
+      <c r="AN74" s="51"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="102"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
-      <c r="L75" s="103"/>
-      <c r="M75" s="103"/>
-      <c r="N75" s="103"/>
-      <c r="O75" s="103"/>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="103"/>
-      <c r="R75" s="103"/>
-      <c r="S75" s="103"/>
-      <c r="T75" s="103"/>
-      <c r="U75" s="103"/>
-      <c r="V75" s="103"/>
-      <c r="W75" s="103"/>
-      <c r="X75" s="103"/>
-      <c r="Y75" s="103"/>
-      <c r="Z75" s="103"/>
-      <c r="AA75" s="103"/>
-      <c r="AB75" s="103"/>
-      <c r="AC75" s="103"/>
-      <c r="AD75" s="103"/>
-      <c r="AE75" s="103"/>
-      <c r="AF75" s="103"/>
-      <c r="AG75" s="103"/>
-      <c r="AH75" s="103"/>
-      <c r="AI75" s="103"/>
-      <c r="AJ75" s="103"/>
-      <c r="AK75" s="103"/>
-      <c r="AL75" s="103"/>
-      <c r="AM75" s="103"/>
-      <c r="AN75" s="104"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="53"/>
+      <c r="O75" s="53"/>
+      <c r="P75" s="53"/>
+      <c r="Q75" s="53"/>
+      <c r="R75" s="53"/>
+      <c r="S75" s="53"/>
+      <c r="T75" s="53"/>
+      <c r="U75" s="53"/>
+      <c r="V75" s="53"/>
+      <c r="W75" s="53"/>
+      <c r="X75" s="53"/>
+      <c r="Y75" s="53"/>
+      <c r="Z75" s="53"/>
+      <c r="AA75" s="53"/>
+      <c r="AB75" s="53"/>
+      <c r="AC75" s="53"/>
+      <c r="AD75" s="53"/>
+      <c r="AE75" s="53"/>
+      <c r="AF75" s="53"/>
+      <c r="AG75" s="53"/>
+      <c r="AH75" s="53"/>
+      <c r="AI75" s="53"/>
+      <c r="AJ75" s="53"/>
+      <c r="AK75" s="53"/>
+      <c r="AL75" s="53"/>
+      <c r="AM75" s="53"/>
+      <c r="AN75" s="54"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="97"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="98"/>
-      <c r="K76" s="98"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98"/>
-      <c r="O76" s="98"/>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
-      <c r="R76" s="98"/>
-      <c r="S76" s="98"/>
-      <c r="T76" s="98"/>
-      <c r="U76" s="98"/>
-      <c r="V76" s="98"/>
-      <c r="W76" s="98"/>
-      <c r="X76" s="98"/>
-      <c r="Y76" s="98"/>
-      <c r="Z76" s="98"/>
-      <c r="AA76" s="98"/>
-      <c r="AB76" s="98"/>
-      <c r="AC76" s="98"/>
-      <c r="AD76" s="98"/>
-      <c r="AE76" s="98"/>
-      <c r="AF76" s="98"/>
-      <c r="AG76" s="98"/>
-      <c r="AH76" s="98"/>
-      <c r="AI76" s="98"/>
-      <c r="AJ76" s="98"/>
-      <c r="AK76" s="98"/>
-      <c r="AL76" s="98"/>
-      <c r="AM76" s="98"/>
-      <c r="AN76" s="99"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="48"/>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
+      <c r="U76" s="48"/>
+      <c r="V76" s="48"/>
+      <c r="W76" s="48"/>
+      <c r="X76" s="48"/>
+      <c r="Y76" s="48"/>
+      <c r="Z76" s="48"/>
+      <c r="AA76" s="48"/>
+      <c r="AB76" s="48"/>
+      <c r="AC76" s="48"/>
+      <c r="AD76" s="48"/>
+      <c r="AE76" s="48"/>
+      <c r="AF76" s="48"/>
+      <c r="AG76" s="48"/>
+      <c r="AH76" s="48"/>
+      <c r="AI76" s="48"/>
+      <c r="AJ76" s="48"/>
+      <c r="AK76" s="48"/>
+      <c r="AL76" s="48"/>
+      <c r="AM76" s="48"/>
+      <c r="AN76" s="49"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="100"/>
-      <c r="B77" s="97" t="s">
+      <c r="A77" s="50"/>
+      <c r="B77" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98"/>
-      <c r="K77" s="98"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="98"/>
-      <c r="N77" s="98"/>
-      <c r="O77" s="98"/>
-      <c r="P77" s="98"/>
-      <c r="Q77" s="98"/>
-      <c r="R77" s="98"/>
-      <c r="S77" s="98"/>
-      <c r="T77" s="98"/>
-      <c r="U77" s="98"/>
-      <c r="V77" s="98"/>
-      <c r="W77" s="98"/>
-      <c r="X77" s="98"/>
-      <c r="Y77" s="98"/>
-      <c r="Z77" s="98"/>
-      <c r="AA77" s="98"/>
-      <c r="AB77" s="98"/>
-      <c r="AC77" s="98"/>
-      <c r="AD77" s="98"/>
-      <c r="AE77" s="98"/>
-      <c r="AF77" s="98"/>
-      <c r="AG77" s="98"/>
-      <c r="AH77" s="98"/>
-      <c r="AI77" s="98"/>
-      <c r="AJ77" s="98"/>
-      <c r="AK77" s="98"/>
-      <c r="AL77" s="98"/>
-      <c r="AM77" s="99"/>
-      <c r="AN77" s="101"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="48"/>
+      <c r="Q77" s="48"/>
+      <c r="R77" s="48"/>
+      <c r="S77" s="48"/>
+      <c r="T77" s="48"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="48"/>
+      <c r="W77" s="48"/>
+      <c r="X77" s="48"/>
+      <c r="Y77" s="48"/>
+      <c r="Z77" s="48"/>
+      <c r="AA77" s="48"/>
+      <c r="AB77" s="48"/>
+      <c r="AC77" s="48"/>
+      <c r="AD77" s="48"/>
+      <c r="AE77" s="48"/>
+      <c r="AF77" s="48"/>
+      <c r="AG77" s="48"/>
+      <c r="AH77" s="48"/>
+      <c r="AI77" s="48"/>
+      <c r="AJ77" s="48"/>
+      <c r="AK77" s="48"/>
+      <c r="AL77" s="48"/>
+      <c r="AM77" s="49"/>
+      <c r="AN77" s="51"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="100"/>
-      <c r="B78" s="100"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -18515,1372 +18550,1372 @@
       <c r="AJ78" s="26"/>
       <c r="AK78" s="26"/>
       <c r="AL78" s="26"/>
-      <c r="AM78" s="101"/>
-      <c r="AN78" s="101"/>
+      <c r="AM78" s="51"/>
+      <c r="AN78" s="51"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="100"/>
-      <c r="B79" s="105" t="s">
+      <c r="A79" s="50"/>
+      <c r="B79" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="106"/>
-      <c r="D79" s="107" t="s">
+      <c r="C79" s="56"/>
+      <c r="D79" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="108"/>
-      <c r="F79" s="108"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="107" t="s">
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="109"/>
-      <c r="J79" s="108"/>
-      <c r="K79" s="110"/>
-      <c r="L79" s="107" t="s">
+      <c r="I79" s="59"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="M79" s="108"/>
-      <c r="N79" s="110"/>
-      <c r="O79" s="107" t="s">
+      <c r="M79" s="58"/>
+      <c r="N79" s="60"/>
+      <c r="O79" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
-      <c r="R79" s="110"/>
-      <c r="S79" s="107" t="s">
+      <c r="P79" s="58"/>
+      <c r="Q79" s="58"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="T79" s="110"/>
-      <c r="U79" s="107" t="s">
+      <c r="T79" s="60"/>
+      <c r="U79" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="V79" s="110"/>
-      <c r="W79" s="107" t="s">
+      <c r="V79" s="60"/>
+      <c r="W79" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X79" s="108"/>
-      <c r="Y79" s="108"/>
-      <c r="Z79" s="110"/>
-      <c r="AA79" s="107" t="s">
+      <c r="X79" s="58"/>
+      <c r="Y79" s="58"/>
+      <c r="Z79" s="60"/>
+      <c r="AA79" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AB79" s="108"/>
-      <c r="AC79" s="110"/>
-      <c r="AD79" s="107" t="s">
+      <c r="AB79" s="58"/>
+      <c r="AC79" s="60"/>
+      <c r="AD79" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AE79" s="108"/>
-      <c r="AF79" s="108"/>
-      <c r="AG79" s="108"/>
-      <c r="AH79" s="108"/>
-      <c r="AI79" s="108"/>
-      <c r="AJ79" s="108"/>
-      <c r="AK79" s="108"/>
-      <c r="AL79" s="108"/>
-      <c r="AM79" s="111"/>
-      <c r="AN79" s="101"/>
+      <c r="AE79" s="58"/>
+      <c r="AF79" s="58"/>
+      <c r="AG79" s="58"/>
+      <c r="AH79" s="58"/>
+      <c r="AI79" s="58"/>
+      <c r="AJ79" s="58"/>
+      <c r="AK79" s="58"/>
+      <c r="AL79" s="58"/>
+      <c r="AM79" s="61"/>
+      <c r="AN79" s="51"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="100"/>
-      <c r="B80" s="105"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="108"/>
-      <c r="F80" s="108"/>
-      <c r="G80" s="106"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="109"/>
-      <c r="J80" s="108"/>
-      <c r="K80" s="110"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="108"/>
-      <c r="N80" s="110"/>
-      <c r="O80" s="107"/>
-      <c r="P80" s="108"/>
-      <c r="Q80" s="108"/>
-      <c r="R80" s="110"/>
-      <c r="S80" s="107"/>
-      <c r="T80" s="110"/>
-      <c r="U80" s="107"/>
-      <c r="V80" s="110"/>
-      <c r="W80" s="107"/>
-      <c r="X80" s="108"/>
-      <c r="Y80" s="108"/>
-      <c r="Z80" s="110"/>
-      <c r="AA80" s="107"/>
-      <c r="AB80" s="108"/>
-      <c r="AC80" s="110"/>
-      <c r="AD80" s="107"/>
-      <c r="AE80" s="108"/>
-      <c r="AF80" s="108"/>
-      <c r="AG80" s="108"/>
-      <c r="AH80" s="108"/>
-      <c r="AI80" s="108"/>
-      <c r="AJ80" s="108"/>
-      <c r="AK80" s="108"/>
-      <c r="AL80" s="108"/>
-      <c r="AM80" s="111"/>
-      <c r="AN80" s="101"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="58"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="60"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="58"/>
+      <c r="Y80" s="58"/>
+      <c r="Z80" s="60"/>
+      <c r="AA80" s="57"/>
+      <c r="AB80" s="58"/>
+      <c r="AC80" s="60"/>
+      <c r="AD80" s="57"/>
+      <c r="AE80" s="58"/>
+      <c r="AF80" s="58"/>
+      <c r="AG80" s="58"/>
+      <c r="AH80" s="58"/>
+      <c r="AI80" s="58"/>
+      <c r="AJ80" s="58"/>
+      <c r="AK80" s="58"/>
+      <c r="AL80" s="58"/>
+      <c r="AM80" s="61"/>
+      <c r="AN80" s="51"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="100"/>
-      <c r="B81" s="105"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108"/>
-      <c r="G81" s="106"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="109"/>
-      <c r="J81" s="108"/>
-      <c r="K81" s="110"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="108"/>
-      <c r="N81" s="110"/>
-      <c r="O81" s="107"/>
-      <c r="P81" s="108"/>
-      <c r="Q81" s="108"/>
-      <c r="R81" s="110"/>
-      <c r="S81" s="107"/>
-      <c r="T81" s="110"/>
-      <c r="U81" s="107"/>
-      <c r="V81" s="110"/>
-      <c r="W81" s="107"/>
-      <c r="X81" s="108"/>
-      <c r="Y81" s="108"/>
-      <c r="Z81" s="110"/>
-      <c r="AA81" s="107"/>
-      <c r="AB81" s="108"/>
-      <c r="AC81" s="110"/>
-      <c r="AD81" s="107"/>
-      <c r="AE81" s="108"/>
-      <c r="AF81" s="108"/>
-      <c r="AG81" s="108"/>
-      <c r="AH81" s="108"/>
-      <c r="AI81" s="108"/>
-      <c r="AJ81" s="108"/>
-      <c r="AK81" s="108"/>
-      <c r="AL81" s="108"/>
-      <c r="AM81" s="111"/>
-      <c r="AN81" s="101"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="58"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="60"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="60"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="58"/>
+      <c r="Y81" s="58"/>
+      <c r="Z81" s="60"/>
+      <c r="AA81" s="57"/>
+      <c r="AB81" s="58"/>
+      <c r="AC81" s="60"/>
+      <c r="AD81" s="57"/>
+      <c r="AE81" s="58"/>
+      <c r="AF81" s="58"/>
+      <c r="AG81" s="58"/>
+      <c r="AH81" s="58"/>
+      <c r="AI81" s="58"/>
+      <c r="AJ81" s="58"/>
+      <c r="AK81" s="58"/>
+      <c r="AL81" s="58"/>
+      <c r="AM81" s="61"/>
+      <c r="AN81" s="51"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="100"/>
-      <c r="B82" s="105"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="108"/>
-      <c r="K82" s="110"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="108"/>
-      <c r="N82" s="110"/>
-      <c r="O82" s="107"/>
-      <c r="P82" s="108"/>
-      <c r="Q82" s="108"/>
-      <c r="R82" s="110"/>
-      <c r="S82" s="107"/>
-      <c r="T82" s="110"/>
-      <c r="U82" s="107"/>
-      <c r="V82" s="110"/>
-      <c r="W82" s="107"/>
-      <c r="X82" s="108"/>
-      <c r="Y82" s="108"/>
-      <c r="Z82" s="110"/>
-      <c r="AA82" s="107"/>
-      <c r="AB82" s="108"/>
-      <c r="AC82" s="110"/>
-      <c r="AD82" s="107"/>
-      <c r="AE82" s="108"/>
-      <c r="AF82" s="108"/>
-      <c r="AG82" s="108"/>
-      <c r="AH82" s="108"/>
-      <c r="AI82" s="108"/>
-      <c r="AJ82" s="108"/>
-      <c r="AK82" s="108"/>
-      <c r="AL82" s="108"/>
-      <c r="AM82" s="111"/>
-      <c r="AN82" s="101"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="60"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="57"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="60"/>
+      <c r="W82" s="57"/>
+      <c r="X82" s="58"/>
+      <c r="Y82" s="58"/>
+      <c r="Z82" s="60"/>
+      <c r="AA82" s="57"/>
+      <c r="AB82" s="58"/>
+      <c r="AC82" s="60"/>
+      <c r="AD82" s="57"/>
+      <c r="AE82" s="58"/>
+      <c r="AF82" s="58"/>
+      <c r="AG82" s="58"/>
+      <c r="AH82" s="58"/>
+      <c r="AI82" s="58"/>
+      <c r="AJ82" s="58"/>
+      <c r="AK82" s="58"/>
+      <c r="AL82" s="58"/>
+      <c r="AM82" s="61"/>
+      <c r="AN82" s="51"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="100"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="109"/>
-      <c r="J83" s="108"/>
-      <c r="K83" s="110"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="108"/>
-      <c r="N83" s="110"/>
-      <c r="O83" s="107"/>
-      <c r="P83" s="108"/>
-      <c r="Q83" s="108"/>
-      <c r="R83" s="110"/>
-      <c r="S83" s="107"/>
-      <c r="T83" s="110"/>
-      <c r="U83" s="107"/>
-      <c r="V83" s="110"/>
-      <c r="W83" s="107"/>
-      <c r="X83" s="108"/>
-      <c r="Y83" s="108"/>
-      <c r="Z83" s="110"/>
-      <c r="AA83" s="107"/>
-      <c r="AB83" s="108"/>
-      <c r="AC83" s="110"/>
-      <c r="AD83" s="107"/>
-      <c r="AE83" s="108"/>
-      <c r="AF83" s="108"/>
-      <c r="AG83" s="108"/>
-      <c r="AH83" s="108"/>
-      <c r="AI83" s="108"/>
-      <c r="AJ83" s="108"/>
-      <c r="AK83" s="108"/>
-      <c r="AL83" s="108"/>
-      <c r="AM83" s="111"/>
-      <c r="AN83" s="101"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="57"/>
+      <c r="X83" s="58"/>
+      <c r="Y83" s="58"/>
+      <c r="Z83" s="60"/>
+      <c r="AA83" s="57"/>
+      <c r="AB83" s="58"/>
+      <c r="AC83" s="60"/>
+      <c r="AD83" s="57"/>
+      <c r="AE83" s="58"/>
+      <c r="AF83" s="58"/>
+      <c r="AG83" s="58"/>
+      <c r="AH83" s="58"/>
+      <c r="AI83" s="58"/>
+      <c r="AJ83" s="58"/>
+      <c r="AK83" s="58"/>
+      <c r="AL83" s="58"/>
+      <c r="AM83" s="61"/>
+      <c r="AN83" s="51"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="100"/>
-      <c r="B84" s="105"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="109"/>
-      <c r="J84" s="108"/>
-      <c r="K84" s="110"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="108"/>
-      <c r="N84" s="110"/>
-      <c r="O84" s="107"/>
-      <c r="P84" s="108"/>
-      <c r="Q84" s="108"/>
-      <c r="R84" s="110"/>
-      <c r="S84" s="107"/>
-      <c r="T84" s="110"/>
-      <c r="U84" s="107"/>
-      <c r="V84" s="110"/>
-      <c r="W84" s="107"/>
-      <c r="X84" s="108"/>
-      <c r="Y84" s="108"/>
-      <c r="Z84" s="110"/>
-      <c r="AA84" s="107"/>
-      <c r="AB84" s="108"/>
-      <c r="AC84" s="110"/>
-      <c r="AD84" s="107"/>
-      <c r="AE84" s="108"/>
-      <c r="AF84" s="108"/>
-      <c r="AG84" s="108"/>
-      <c r="AH84" s="108"/>
-      <c r="AI84" s="108"/>
-      <c r="AJ84" s="108"/>
-      <c r="AK84" s="108"/>
-      <c r="AL84" s="108"/>
-      <c r="AM84" s="111"/>
-      <c r="AN84" s="101"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="58"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="57"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="57"/>
+      <c r="X84" s="58"/>
+      <c r="Y84" s="58"/>
+      <c r="Z84" s="60"/>
+      <c r="AA84" s="57"/>
+      <c r="AB84" s="58"/>
+      <c r="AC84" s="60"/>
+      <c r="AD84" s="57"/>
+      <c r="AE84" s="58"/>
+      <c r="AF84" s="58"/>
+      <c r="AG84" s="58"/>
+      <c r="AH84" s="58"/>
+      <c r="AI84" s="58"/>
+      <c r="AJ84" s="58"/>
+      <c r="AK84" s="58"/>
+      <c r="AL84" s="58"/>
+      <c r="AM84" s="61"/>
+      <c r="AN84" s="51"/>
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="100"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="108"/>
-      <c r="G85" s="106"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="108"/>
-      <c r="K85" s="110"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="108"/>
-      <c r="N85" s="110"/>
-      <c r="O85" s="107"/>
-      <c r="P85" s="108"/>
-      <c r="Q85" s="108"/>
-      <c r="R85" s="110"/>
-      <c r="S85" s="107"/>
-      <c r="T85" s="110"/>
-      <c r="U85" s="107"/>
-      <c r="V85" s="110"/>
-      <c r="W85" s="107"/>
-      <c r="X85" s="108"/>
-      <c r="Y85" s="108"/>
-      <c r="Z85" s="110"/>
-      <c r="AA85" s="107"/>
-      <c r="AB85" s="108"/>
-      <c r="AC85" s="110"/>
-      <c r="AD85" s="107"/>
-      <c r="AE85" s="108"/>
-      <c r="AF85" s="108"/>
-      <c r="AG85" s="108"/>
-      <c r="AH85" s="108"/>
-      <c r="AI85" s="108"/>
-      <c r="AJ85" s="108"/>
-      <c r="AK85" s="108"/>
-      <c r="AL85" s="108"/>
-      <c r="AM85" s="111"/>
-      <c r="AN85" s="101"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="58"/>
+      <c r="Q85" s="58"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="57"/>
+      <c r="T85" s="60"/>
+      <c r="U85" s="57"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="57"/>
+      <c r="X85" s="58"/>
+      <c r="Y85" s="58"/>
+      <c r="Z85" s="60"/>
+      <c r="AA85" s="57"/>
+      <c r="AB85" s="58"/>
+      <c r="AC85" s="60"/>
+      <c r="AD85" s="57"/>
+      <c r="AE85" s="58"/>
+      <c r="AF85" s="58"/>
+      <c r="AG85" s="58"/>
+      <c r="AH85" s="58"/>
+      <c r="AI85" s="58"/>
+      <c r="AJ85" s="58"/>
+      <c r="AK85" s="58"/>
+      <c r="AL85" s="58"/>
+      <c r="AM85" s="61"/>
+      <c r="AN85" s="51"/>
     </row>
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="100"/>
-      <c r="B86" s="105"/>
-      <c r="C86" s="106"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="106"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="109"/>
-      <c r="J86" s="108"/>
-      <c r="K86" s="110"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="108"/>
-      <c r="N86" s="110"/>
-      <c r="O86" s="107"/>
-      <c r="P86" s="108"/>
-      <c r="Q86" s="108"/>
-      <c r="R86" s="110"/>
-      <c r="S86" s="107"/>
-      <c r="T86" s="110"/>
-      <c r="U86" s="107"/>
-      <c r="V86" s="110"/>
-      <c r="W86" s="107"/>
-      <c r="X86" s="108"/>
-      <c r="Y86" s="108"/>
-      <c r="Z86" s="110"/>
-      <c r="AA86" s="107"/>
-      <c r="AB86" s="108"/>
-      <c r="AC86" s="110"/>
-      <c r="AD86" s="107"/>
-      <c r="AE86" s="108"/>
-      <c r="AF86" s="108"/>
-      <c r="AG86" s="108"/>
-      <c r="AH86" s="108"/>
-      <c r="AI86" s="108"/>
-      <c r="AJ86" s="108"/>
-      <c r="AK86" s="108"/>
-      <c r="AL86" s="108"/>
-      <c r="AM86" s="111"/>
-      <c r="AN86" s="101"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="58"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="57"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="57"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="57"/>
+      <c r="X86" s="58"/>
+      <c r="Y86" s="58"/>
+      <c r="Z86" s="60"/>
+      <c r="AA86" s="57"/>
+      <c r="AB86" s="58"/>
+      <c r="AC86" s="60"/>
+      <c r="AD86" s="57"/>
+      <c r="AE86" s="58"/>
+      <c r="AF86" s="58"/>
+      <c r="AG86" s="58"/>
+      <c r="AH86" s="58"/>
+      <c r="AI86" s="58"/>
+      <c r="AJ86" s="58"/>
+      <c r="AK86" s="58"/>
+      <c r="AL86" s="58"/>
+      <c r="AM86" s="61"/>
+      <c r="AN86" s="51"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="100"/>
-      <c r="B87" s="105"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="106"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="108"/>
-      <c r="N87" s="110"/>
-      <c r="O87" s="107"/>
-      <c r="P87" s="108"/>
-      <c r="Q87" s="108"/>
-      <c r="R87" s="110"/>
-      <c r="S87" s="107"/>
-      <c r="T87" s="110"/>
-      <c r="U87" s="107"/>
-      <c r="V87" s="110"/>
-      <c r="W87" s="107"/>
-      <c r="X87" s="108"/>
-      <c r="Y87" s="108"/>
-      <c r="Z87" s="110"/>
-      <c r="AA87" s="107"/>
-      <c r="AB87" s="108"/>
-      <c r="AC87" s="110"/>
-      <c r="AD87" s="107"/>
-      <c r="AE87" s="108"/>
-      <c r="AF87" s="108"/>
-      <c r="AG87" s="108"/>
-      <c r="AH87" s="108"/>
-      <c r="AI87" s="108"/>
-      <c r="AJ87" s="108"/>
-      <c r="AK87" s="108"/>
-      <c r="AL87" s="108"/>
-      <c r="AM87" s="111"/>
-      <c r="AN87" s="101"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="58"/>
+      <c r="N87" s="60"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="58"/>
+      <c r="Q87" s="58"/>
+      <c r="R87" s="60"/>
+      <c r="S87" s="57"/>
+      <c r="T87" s="60"/>
+      <c r="U87" s="57"/>
+      <c r="V87" s="60"/>
+      <c r="W87" s="57"/>
+      <c r="X87" s="58"/>
+      <c r="Y87" s="58"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="57"/>
+      <c r="AB87" s="58"/>
+      <c r="AC87" s="60"/>
+      <c r="AD87" s="57"/>
+      <c r="AE87" s="58"/>
+      <c r="AF87" s="58"/>
+      <c r="AG87" s="58"/>
+      <c r="AH87" s="58"/>
+      <c r="AI87" s="58"/>
+      <c r="AJ87" s="58"/>
+      <c r="AK87" s="58"/>
+      <c r="AL87" s="58"/>
+      <c r="AM87" s="61"/>
+      <c r="AN87" s="51"/>
     </row>
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="100"/>
-      <c r="B88" s="105"/>
-      <c r="C88" s="106"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="106"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="108"/>
-      <c r="K88" s="110"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="108"/>
-      <c r="N88" s="110"/>
-      <c r="O88" s="107"/>
-      <c r="P88" s="108"/>
-      <c r="Q88" s="108"/>
-      <c r="R88" s="110"/>
-      <c r="S88" s="107"/>
-      <c r="T88" s="110"/>
-      <c r="U88" s="107"/>
-      <c r="V88" s="110"/>
-      <c r="W88" s="107"/>
-      <c r="X88" s="108"/>
-      <c r="Y88" s="108"/>
-      <c r="Z88" s="110"/>
-      <c r="AA88" s="107"/>
-      <c r="AB88" s="108"/>
-      <c r="AC88" s="110"/>
-      <c r="AD88" s="107"/>
-      <c r="AE88" s="108"/>
-      <c r="AF88" s="108"/>
-      <c r="AG88" s="108"/>
-      <c r="AH88" s="108"/>
-      <c r="AI88" s="108"/>
-      <c r="AJ88" s="108"/>
-      <c r="AK88" s="108"/>
-      <c r="AL88" s="108"/>
-      <c r="AM88" s="111"/>
-      <c r="AN88" s="101"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="57"/>
+      <c r="T88" s="60"/>
+      <c r="U88" s="57"/>
+      <c r="V88" s="60"/>
+      <c r="W88" s="57"/>
+      <c r="X88" s="58"/>
+      <c r="Y88" s="58"/>
+      <c r="Z88" s="60"/>
+      <c r="AA88" s="57"/>
+      <c r="AB88" s="58"/>
+      <c r="AC88" s="60"/>
+      <c r="AD88" s="57"/>
+      <c r="AE88" s="58"/>
+      <c r="AF88" s="58"/>
+      <c r="AG88" s="58"/>
+      <c r="AH88" s="58"/>
+      <c r="AI88" s="58"/>
+      <c r="AJ88" s="58"/>
+      <c r="AK88" s="58"/>
+      <c r="AL88" s="58"/>
+      <c r="AM88" s="61"/>
+      <c r="AN88" s="51"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="100"/>
-      <c r="B89" s="105"/>
-      <c r="C89" s="106"/>
-      <c r="D89" s="107"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="106"/>
-      <c r="H89" s="107"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="108"/>
-      <c r="K89" s="110"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="108"/>
-      <c r="N89" s="110"/>
-      <c r="O89" s="107"/>
-      <c r="P89" s="108"/>
-      <c r="Q89" s="108"/>
-      <c r="R89" s="110"/>
-      <c r="S89" s="107"/>
-      <c r="T89" s="110"/>
-      <c r="U89" s="107"/>
-      <c r="V89" s="110"/>
-      <c r="W89" s="107"/>
-      <c r="X89" s="108"/>
-      <c r="Y89" s="108"/>
-      <c r="Z89" s="110"/>
-      <c r="AA89" s="107"/>
-      <c r="AB89" s="108"/>
-      <c r="AC89" s="110"/>
-      <c r="AD89" s="107"/>
-      <c r="AE89" s="108"/>
-      <c r="AF89" s="108"/>
-      <c r="AG89" s="108"/>
-      <c r="AH89" s="108"/>
-      <c r="AI89" s="108"/>
-      <c r="AJ89" s="108"/>
-      <c r="AK89" s="108"/>
-      <c r="AL89" s="108"/>
-      <c r="AM89" s="111"/>
-      <c r="AN89" s="101"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="57"/>
+      <c r="P89" s="58"/>
+      <c r="Q89" s="58"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="57"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="57"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="57"/>
+      <c r="X89" s="58"/>
+      <c r="Y89" s="58"/>
+      <c r="Z89" s="60"/>
+      <c r="AA89" s="57"/>
+      <c r="AB89" s="58"/>
+      <c r="AC89" s="60"/>
+      <c r="AD89" s="57"/>
+      <c r="AE89" s="58"/>
+      <c r="AF89" s="58"/>
+      <c r="AG89" s="58"/>
+      <c r="AH89" s="58"/>
+      <c r="AI89" s="58"/>
+      <c r="AJ89" s="58"/>
+      <c r="AK89" s="58"/>
+      <c r="AL89" s="58"/>
+      <c r="AM89" s="61"/>
+      <c r="AN89" s="51"/>
     </row>
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="100"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="106"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="106"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="109"/>
-      <c r="J90" s="108"/>
-      <c r="K90" s="110"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="108"/>
-      <c r="N90" s="110"/>
-      <c r="O90" s="107"/>
-      <c r="P90" s="108"/>
-      <c r="Q90" s="108"/>
-      <c r="R90" s="110"/>
-      <c r="S90" s="107"/>
-      <c r="T90" s="110"/>
-      <c r="U90" s="107"/>
-      <c r="V90" s="110"/>
-      <c r="W90" s="107"/>
-      <c r="X90" s="108"/>
-      <c r="Y90" s="108"/>
-      <c r="Z90" s="110"/>
-      <c r="AA90" s="107"/>
-      <c r="AB90" s="108"/>
-      <c r="AC90" s="110"/>
-      <c r="AD90" s="107"/>
-      <c r="AE90" s="108"/>
-      <c r="AF90" s="108"/>
-      <c r="AG90" s="108"/>
-      <c r="AH90" s="108"/>
-      <c r="AI90" s="108"/>
-      <c r="AJ90" s="108"/>
-      <c r="AK90" s="108"/>
-      <c r="AL90" s="108"/>
-      <c r="AM90" s="111"/>
-      <c r="AN90" s="101"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="57"/>
+      <c r="M90" s="58"/>
+      <c r="N90" s="60"/>
+      <c r="O90" s="57"/>
+      <c r="P90" s="58"/>
+      <c r="Q90" s="58"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="57"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="57"/>
+      <c r="V90" s="60"/>
+      <c r="W90" s="57"/>
+      <c r="X90" s="58"/>
+      <c r="Y90" s="58"/>
+      <c r="Z90" s="60"/>
+      <c r="AA90" s="57"/>
+      <c r="AB90" s="58"/>
+      <c r="AC90" s="60"/>
+      <c r="AD90" s="57"/>
+      <c r="AE90" s="58"/>
+      <c r="AF90" s="58"/>
+      <c r="AG90" s="58"/>
+      <c r="AH90" s="58"/>
+      <c r="AI90" s="58"/>
+      <c r="AJ90" s="58"/>
+      <c r="AK90" s="58"/>
+      <c r="AL90" s="58"/>
+      <c r="AM90" s="61"/>
+      <c r="AN90" s="51"/>
     </row>
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="100"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="107"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="109"/>
-      <c r="J91" s="108"/>
-      <c r="K91" s="110"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="108"/>
-      <c r="N91" s="110"/>
-      <c r="O91" s="107"/>
-      <c r="P91" s="108"/>
-      <c r="Q91" s="108"/>
-      <c r="R91" s="110"/>
-      <c r="S91" s="107"/>
-      <c r="T91" s="110"/>
-      <c r="U91" s="107"/>
-      <c r="V91" s="110"/>
-      <c r="W91" s="107"/>
-      <c r="X91" s="108"/>
-      <c r="Y91" s="108"/>
-      <c r="Z91" s="110"/>
-      <c r="AA91" s="107"/>
-      <c r="AB91" s="108"/>
-      <c r="AC91" s="110"/>
-      <c r="AD91" s="107"/>
-      <c r="AE91" s="108"/>
-      <c r="AF91" s="108"/>
-      <c r="AG91" s="108"/>
-      <c r="AH91" s="108"/>
-      <c r="AI91" s="108"/>
-      <c r="AJ91" s="108"/>
-      <c r="AK91" s="108"/>
-      <c r="AL91" s="108"/>
-      <c r="AM91" s="111"/>
-      <c r="AN91" s="101"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="57"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="57"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="57"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="57"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="57"/>
+      <c r="X91" s="58"/>
+      <c r="Y91" s="58"/>
+      <c r="Z91" s="60"/>
+      <c r="AA91" s="57"/>
+      <c r="AB91" s="58"/>
+      <c r="AC91" s="60"/>
+      <c r="AD91" s="57"/>
+      <c r="AE91" s="58"/>
+      <c r="AF91" s="58"/>
+      <c r="AG91" s="58"/>
+      <c r="AH91" s="58"/>
+      <c r="AI91" s="58"/>
+      <c r="AJ91" s="58"/>
+      <c r="AK91" s="58"/>
+      <c r="AL91" s="58"/>
+      <c r="AM91" s="61"/>
+      <c r="AN91" s="51"/>
     </row>
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="100"/>
-      <c r="B92" s="105"/>
-      <c r="C92" s="106"/>
-      <c r="D92" s="107"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="106"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="110"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="108"/>
-      <c r="N92" s="110"/>
-      <c r="O92" s="107"/>
-      <c r="P92" s="108"/>
-      <c r="Q92" s="108"/>
-      <c r="R92" s="110"/>
-      <c r="S92" s="107"/>
-      <c r="T92" s="110"/>
-      <c r="U92" s="107"/>
-      <c r="V92" s="110"/>
-      <c r="W92" s="107"/>
-      <c r="X92" s="108"/>
-      <c r="Y92" s="108"/>
-      <c r="Z92" s="110"/>
-      <c r="AA92" s="107"/>
-      <c r="AB92" s="108"/>
-      <c r="AC92" s="110"/>
-      <c r="AD92" s="107"/>
-      <c r="AE92" s="108"/>
-      <c r="AF92" s="108"/>
-      <c r="AG92" s="108"/>
-      <c r="AH92" s="108"/>
-      <c r="AI92" s="108"/>
-      <c r="AJ92" s="108"/>
-      <c r="AK92" s="108"/>
-      <c r="AL92" s="108"/>
-      <c r="AM92" s="111"/>
-      <c r="AN92" s="101"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="57"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="57"/>
+      <c r="P92" s="58"/>
+      <c r="Q92" s="58"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="57"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="57"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="57"/>
+      <c r="X92" s="58"/>
+      <c r="Y92" s="58"/>
+      <c r="Z92" s="60"/>
+      <c r="AA92" s="57"/>
+      <c r="AB92" s="58"/>
+      <c r="AC92" s="60"/>
+      <c r="AD92" s="57"/>
+      <c r="AE92" s="58"/>
+      <c r="AF92" s="58"/>
+      <c r="AG92" s="58"/>
+      <c r="AH92" s="58"/>
+      <c r="AI92" s="58"/>
+      <c r="AJ92" s="58"/>
+      <c r="AK92" s="58"/>
+      <c r="AL92" s="58"/>
+      <c r="AM92" s="61"/>
+      <c r="AN92" s="51"/>
     </row>
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="100"/>
-      <c r="B93" s="105"/>
-      <c r="C93" s="106"/>
-      <c r="D93" s="107"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="106"/>
-      <c r="H93" s="107"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="108"/>
-      <c r="K93" s="110"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="108"/>
-      <c r="N93" s="110"/>
-      <c r="O93" s="107"/>
-      <c r="P93" s="108"/>
-      <c r="Q93" s="108"/>
-      <c r="R93" s="110"/>
-      <c r="S93" s="107"/>
-      <c r="T93" s="110"/>
-      <c r="U93" s="107"/>
-      <c r="V93" s="110"/>
-      <c r="W93" s="107"/>
-      <c r="X93" s="108"/>
-      <c r="Y93" s="108"/>
-      <c r="Z93" s="110"/>
-      <c r="AA93" s="107"/>
-      <c r="AB93" s="108"/>
-      <c r="AC93" s="110"/>
-      <c r="AD93" s="107"/>
-      <c r="AE93" s="108"/>
-      <c r="AF93" s="108"/>
-      <c r="AG93" s="108"/>
-      <c r="AH93" s="108"/>
-      <c r="AI93" s="108"/>
-      <c r="AJ93" s="108"/>
-      <c r="AK93" s="108"/>
-      <c r="AL93" s="108"/>
-      <c r="AM93" s="111"/>
-      <c r="AN93" s="101"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="60"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="58"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="57"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="60"/>
+      <c r="W93" s="57"/>
+      <c r="X93" s="58"/>
+      <c r="Y93" s="58"/>
+      <c r="Z93" s="60"/>
+      <c r="AA93" s="57"/>
+      <c r="AB93" s="58"/>
+      <c r="AC93" s="60"/>
+      <c r="AD93" s="57"/>
+      <c r="AE93" s="58"/>
+      <c r="AF93" s="58"/>
+      <c r="AG93" s="58"/>
+      <c r="AH93" s="58"/>
+      <c r="AI93" s="58"/>
+      <c r="AJ93" s="58"/>
+      <c r="AK93" s="58"/>
+      <c r="AL93" s="58"/>
+      <c r="AM93" s="61"/>
+      <c r="AN93" s="51"/>
     </row>
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="100"/>
-      <c r="B94" s="105"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="107"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="108"/>
-      <c r="G94" s="106"/>
-      <c r="H94" s="107"/>
-      <c r="I94" s="109"/>
-      <c r="J94" s="108"/>
-      <c r="K94" s="110"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="108"/>
-      <c r="N94" s="110"/>
-      <c r="O94" s="107"/>
-      <c r="P94" s="108"/>
-      <c r="Q94" s="108"/>
-      <c r="R94" s="110"/>
-      <c r="S94" s="107"/>
-      <c r="T94" s="110"/>
-      <c r="U94" s="107"/>
-      <c r="V94" s="110"/>
-      <c r="W94" s="107"/>
-      <c r="X94" s="108"/>
-      <c r="Y94" s="108"/>
-      <c r="Z94" s="110"/>
-      <c r="AA94" s="107"/>
-      <c r="AB94" s="108"/>
-      <c r="AC94" s="110"/>
-      <c r="AD94" s="107"/>
-      <c r="AE94" s="108"/>
-      <c r="AF94" s="108"/>
-      <c r="AG94" s="108"/>
-      <c r="AH94" s="108"/>
-      <c r="AI94" s="108"/>
-      <c r="AJ94" s="108"/>
-      <c r="AK94" s="108"/>
-      <c r="AL94" s="108"/>
-      <c r="AM94" s="111"/>
-      <c r="AN94" s="101"/>
+      <c r="A94" s="50"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="57"/>
+      <c r="P94" s="58"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="57"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="57"/>
+      <c r="V94" s="60"/>
+      <c r="W94" s="57"/>
+      <c r="X94" s="58"/>
+      <c r="Y94" s="58"/>
+      <c r="Z94" s="60"/>
+      <c r="AA94" s="57"/>
+      <c r="AB94" s="58"/>
+      <c r="AC94" s="60"/>
+      <c r="AD94" s="57"/>
+      <c r="AE94" s="58"/>
+      <c r="AF94" s="58"/>
+      <c r="AG94" s="58"/>
+      <c r="AH94" s="58"/>
+      <c r="AI94" s="58"/>
+      <c r="AJ94" s="58"/>
+      <c r="AK94" s="58"/>
+      <c r="AL94" s="58"/>
+      <c r="AM94" s="61"/>
+      <c r="AN94" s="51"/>
     </row>
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="100"/>
-      <c r="B95" s="105"/>
-      <c r="C95" s="106"/>
-      <c r="D95" s="107"/>
-      <c r="E95" s="108"/>
-      <c r="F95" s="108"/>
-      <c r="G95" s="106"/>
-      <c r="H95" s="107"/>
-      <c r="I95" s="109"/>
-      <c r="J95" s="108"/>
-      <c r="K95" s="110"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="108"/>
-      <c r="N95" s="110"/>
-      <c r="O95" s="107"/>
-      <c r="P95" s="108"/>
-      <c r="Q95" s="108"/>
-      <c r="R95" s="110"/>
-      <c r="S95" s="107"/>
-      <c r="T95" s="110"/>
-      <c r="U95" s="107"/>
-      <c r="V95" s="110"/>
-      <c r="W95" s="107"/>
-      <c r="X95" s="108"/>
-      <c r="Y95" s="108"/>
-      <c r="Z95" s="110"/>
-      <c r="AA95" s="107"/>
-      <c r="AB95" s="108"/>
-      <c r="AC95" s="110"/>
-      <c r="AD95" s="107"/>
-      <c r="AE95" s="108"/>
-      <c r="AF95" s="108"/>
-      <c r="AG95" s="108"/>
-      <c r="AH95" s="108"/>
-      <c r="AI95" s="108"/>
-      <c r="AJ95" s="108"/>
-      <c r="AK95" s="108"/>
-      <c r="AL95" s="108"/>
-      <c r="AM95" s="111"/>
-      <c r="AN95" s="101"/>
+      <c r="A95" s="50"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="57"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="60"/>
+      <c r="O95" s="57"/>
+      <c r="P95" s="58"/>
+      <c r="Q95" s="58"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="57"/>
+      <c r="T95" s="60"/>
+      <c r="U95" s="57"/>
+      <c r="V95" s="60"/>
+      <c r="W95" s="57"/>
+      <c r="X95" s="58"/>
+      <c r="Y95" s="58"/>
+      <c r="Z95" s="60"/>
+      <c r="AA95" s="57"/>
+      <c r="AB95" s="58"/>
+      <c r="AC95" s="60"/>
+      <c r="AD95" s="57"/>
+      <c r="AE95" s="58"/>
+      <c r="AF95" s="58"/>
+      <c r="AG95" s="58"/>
+      <c r="AH95" s="58"/>
+      <c r="AI95" s="58"/>
+      <c r="AJ95" s="58"/>
+      <c r="AK95" s="58"/>
+      <c r="AL95" s="58"/>
+      <c r="AM95" s="61"/>
+      <c r="AN95" s="51"/>
     </row>
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="100"/>
-      <c r="B96" s="105"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="107"/>
-      <c r="E96" s="108"/>
-      <c r="F96" s="108"/>
-      <c r="G96" s="106"/>
-      <c r="H96" s="107"/>
-      <c r="I96" s="109"/>
-      <c r="J96" s="108"/>
-      <c r="K96" s="110"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="108"/>
-      <c r="N96" s="110"/>
-      <c r="O96" s="107"/>
-      <c r="P96" s="108"/>
-      <c r="Q96" s="108"/>
-      <c r="R96" s="110"/>
-      <c r="S96" s="107"/>
-      <c r="T96" s="110"/>
-      <c r="U96" s="107"/>
-      <c r="V96" s="110"/>
-      <c r="W96" s="107"/>
-      <c r="X96" s="108"/>
-      <c r="Y96" s="108"/>
-      <c r="Z96" s="110"/>
-      <c r="AA96" s="107"/>
-      <c r="AB96" s="108"/>
-      <c r="AC96" s="110"/>
-      <c r="AD96" s="107"/>
-      <c r="AE96" s="108"/>
-      <c r="AF96" s="108"/>
-      <c r="AG96" s="108"/>
-      <c r="AH96" s="108"/>
-      <c r="AI96" s="108"/>
-      <c r="AJ96" s="108"/>
-      <c r="AK96" s="108"/>
-      <c r="AL96" s="108"/>
-      <c r="AM96" s="111"/>
-      <c r="AN96" s="101"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="60"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="58"/>
+      <c r="Q96" s="58"/>
+      <c r="R96" s="60"/>
+      <c r="S96" s="57"/>
+      <c r="T96" s="60"/>
+      <c r="U96" s="57"/>
+      <c r="V96" s="60"/>
+      <c r="W96" s="57"/>
+      <c r="X96" s="58"/>
+      <c r="Y96" s="58"/>
+      <c r="Z96" s="60"/>
+      <c r="AA96" s="57"/>
+      <c r="AB96" s="58"/>
+      <c r="AC96" s="60"/>
+      <c r="AD96" s="57"/>
+      <c r="AE96" s="58"/>
+      <c r="AF96" s="58"/>
+      <c r="AG96" s="58"/>
+      <c r="AH96" s="58"/>
+      <c r="AI96" s="58"/>
+      <c r="AJ96" s="58"/>
+      <c r="AK96" s="58"/>
+      <c r="AL96" s="58"/>
+      <c r="AM96" s="61"/>
+      <c r="AN96" s="51"/>
     </row>
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="100"/>
-      <c r="B97" s="105"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="107"/>
-      <c r="E97" s="108"/>
-      <c r="F97" s="108"/>
-      <c r="G97" s="106"/>
-      <c r="H97" s="107"/>
-      <c r="I97" s="109"/>
-      <c r="J97" s="108"/>
-      <c r="K97" s="110"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="108"/>
-      <c r="N97" s="110"/>
-      <c r="O97" s="107"/>
-      <c r="P97" s="108"/>
-      <c r="Q97" s="108"/>
-      <c r="R97" s="110"/>
-      <c r="S97" s="107"/>
-      <c r="T97" s="110"/>
-      <c r="U97" s="107"/>
-      <c r="V97" s="110"/>
-      <c r="W97" s="107"/>
-      <c r="X97" s="108"/>
-      <c r="Y97" s="108"/>
-      <c r="Z97" s="110"/>
-      <c r="AA97" s="107"/>
-      <c r="AB97" s="108"/>
-      <c r="AC97" s="110"/>
-      <c r="AD97" s="107"/>
-      <c r="AE97" s="108"/>
-      <c r="AF97" s="108"/>
-      <c r="AG97" s="108"/>
-      <c r="AH97" s="108"/>
-      <c r="AI97" s="108"/>
-      <c r="AJ97" s="108"/>
-      <c r="AK97" s="108"/>
-      <c r="AL97" s="108"/>
-      <c r="AM97" s="111"/>
-      <c r="AN97" s="101"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="57"/>
+      <c r="P97" s="58"/>
+      <c r="Q97" s="58"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="57"/>
+      <c r="T97" s="60"/>
+      <c r="U97" s="57"/>
+      <c r="V97" s="60"/>
+      <c r="W97" s="57"/>
+      <c r="X97" s="58"/>
+      <c r="Y97" s="58"/>
+      <c r="Z97" s="60"/>
+      <c r="AA97" s="57"/>
+      <c r="AB97" s="58"/>
+      <c r="AC97" s="60"/>
+      <c r="AD97" s="57"/>
+      <c r="AE97" s="58"/>
+      <c r="AF97" s="58"/>
+      <c r="AG97" s="58"/>
+      <c r="AH97" s="58"/>
+      <c r="AI97" s="58"/>
+      <c r="AJ97" s="58"/>
+      <c r="AK97" s="58"/>
+      <c r="AL97" s="58"/>
+      <c r="AM97" s="61"/>
+      <c r="AN97" s="51"/>
     </row>
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="100"/>
-      <c r="B98" s="105"/>
-      <c r="C98" s="106"/>
-      <c r="D98" s="107"/>
-      <c r="E98" s="108"/>
-      <c r="F98" s="108"/>
-      <c r="G98" s="106"/>
-      <c r="H98" s="107"/>
-      <c r="I98" s="109"/>
-      <c r="J98" s="108"/>
-      <c r="K98" s="110"/>
-      <c r="L98" s="107"/>
-      <c r="M98" s="108"/>
-      <c r="N98" s="110"/>
-      <c r="O98" s="107"/>
-      <c r="P98" s="108"/>
-      <c r="Q98" s="108"/>
-      <c r="R98" s="110"/>
-      <c r="S98" s="107"/>
-      <c r="T98" s="110"/>
-      <c r="U98" s="107"/>
-      <c r="V98" s="110"/>
-      <c r="W98" s="107"/>
-      <c r="X98" s="108"/>
-      <c r="Y98" s="108"/>
-      <c r="Z98" s="110"/>
-      <c r="AA98" s="107"/>
-      <c r="AB98" s="108"/>
-      <c r="AC98" s="110"/>
-      <c r="AD98" s="107"/>
-      <c r="AE98" s="108"/>
-      <c r="AF98" s="108"/>
-      <c r="AG98" s="108"/>
-      <c r="AH98" s="108"/>
-      <c r="AI98" s="108"/>
-      <c r="AJ98" s="108"/>
-      <c r="AK98" s="108"/>
-      <c r="AL98" s="108"/>
-      <c r="AM98" s="111"/>
-      <c r="AN98" s="101"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="57"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="57"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="58"/>
+      <c r="R98" s="60"/>
+      <c r="S98" s="57"/>
+      <c r="T98" s="60"/>
+      <c r="U98" s="57"/>
+      <c r="V98" s="60"/>
+      <c r="W98" s="57"/>
+      <c r="X98" s="58"/>
+      <c r="Y98" s="58"/>
+      <c r="Z98" s="60"/>
+      <c r="AA98" s="57"/>
+      <c r="AB98" s="58"/>
+      <c r="AC98" s="60"/>
+      <c r="AD98" s="57"/>
+      <c r="AE98" s="58"/>
+      <c r="AF98" s="58"/>
+      <c r="AG98" s="58"/>
+      <c r="AH98" s="58"/>
+      <c r="AI98" s="58"/>
+      <c r="AJ98" s="58"/>
+      <c r="AK98" s="58"/>
+      <c r="AL98" s="58"/>
+      <c r="AM98" s="61"/>
+      <c r="AN98" s="51"/>
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="100"/>
-      <c r="B99" s="105"/>
-      <c r="C99" s="106"/>
-      <c r="D99" s="107"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="106"/>
-      <c r="H99" s="107"/>
-      <c r="I99" s="109"/>
-      <c r="J99" s="108"/>
-      <c r="K99" s="110"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="108"/>
-      <c r="N99" s="110"/>
-      <c r="O99" s="107"/>
-      <c r="P99" s="108"/>
-      <c r="Q99" s="108"/>
-      <c r="R99" s="110"/>
-      <c r="S99" s="107"/>
-      <c r="T99" s="110"/>
-      <c r="U99" s="107"/>
-      <c r="V99" s="110"/>
-      <c r="W99" s="107"/>
-      <c r="X99" s="108"/>
-      <c r="Y99" s="108"/>
-      <c r="Z99" s="110"/>
-      <c r="AA99" s="107"/>
-      <c r="AB99" s="108"/>
-      <c r="AC99" s="110"/>
-      <c r="AD99" s="107"/>
-      <c r="AE99" s="108"/>
-      <c r="AF99" s="108"/>
-      <c r="AG99" s="108"/>
-      <c r="AH99" s="108"/>
-      <c r="AI99" s="108"/>
-      <c r="AJ99" s="108"/>
-      <c r="AK99" s="108"/>
-      <c r="AL99" s="108"/>
-      <c r="AM99" s="111"/>
-      <c r="AN99" s="101"/>
+      <c r="A99" s="50"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="60"/>
+      <c r="O99" s="57"/>
+      <c r="P99" s="58"/>
+      <c r="Q99" s="58"/>
+      <c r="R99" s="60"/>
+      <c r="S99" s="57"/>
+      <c r="T99" s="60"/>
+      <c r="U99" s="57"/>
+      <c r="V99" s="60"/>
+      <c r="W99" s="57"/>
+      <c r="X99" s="58"/>
+      <c r="Y99" s="58"/>
+      <c r="Z99" s="60"/>
+      <c r="AA99" s="57"/>
+      <c r="AB99" s="58"/>
+      <c r="AC99" s="60"/>
+      <c r="AD99" s="57"/>
+      <c r="AE99" s="58"/>
+      <c r="AF99" s="58"/>
+      <c r="AG99" s="58"/>
+      <c r="AH99" s="58"/>
+      <c r="AI99" s="58"/>
+      <c r="AJ99" s="58"/>
+      <c r="AK99" s="58"/>
+      <c r="AL99" s="58"/>
+      <c r="AM99" s="61"/>
+      <c r="AN99" s="51"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="100"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="108"/>
-      <c r="F100" s="108"/>
-      <c r="G100" s="106"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="109"/>
-      <c r="J100" s="108"/>
-      <c r="K100" s="110"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="108"/>
-      <c r="N100" s="110"/>
-      <c r="O100" s="107"/>
-      <c r="P100" s="108"/>
-      <c r="Q100" s="108"/>
-      <c r="R100" s="110"/>
-      <c r="S100" s="107"/>
-      <c r="T100" s="110"/>
-      <c r="U100" s="107"/>
-      <c r="V100" s="110"/>
-      <c r="W100" s="107"/>
-      <c r="X100" s="108"/>
-      <c r="Y100" s="108"/>
-      <c r="Z100" s="110"/>
-      <c r="AA100" s="107"/>
-      <c r="AB100" s="108"/>
-      <c r="AC100" s="110"/>
-      <c r="AD100" s="107"/>
-      <c r="AE100" s="108"/>
-      <c r="AF100" s="108"/>
-      <c r="AG100" s="108"/>
-      <c r="AH100" s="108"/>
-      <c r="AI100" s="108"/>
-      <c r="AJ100" s="108"/>
-      <c r="AK100" s="108"/>
-      <c r="AL100" s="108"/>
-      <c r="AM100" s="111"/>
-      <c r="AN100" s="101"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="57"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="57"/>
+      <c r="P100" s="58"/>
+      <c r="Q100" s="58"/>
+      <c r="R100" s="60"/>
+      <c r="S100" s="57"/>
+      <c r="T100" s="60"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="60"/>
+      <c r="W100" s="57"/>
+      <c r="X100" s="58"/>
+      <c r="Y100" s="58"/>
+      <c r="Z100" s="60"/>
+      <c r="AA100" s="57"/>
+      <c r="AB100" s="58"/>
+      <c r="AC100" s="60"/>
+      <c r="AD100" s="57"/>
+      <c r="AE100" s="58"/>
+      <c r="AF100" s="58"/>
+      <c r="AG100" s="58"/>
+      <c r="AH100" s="58"/>
+      <c r="AI100" s="58"/>
+      <c r="AJ100" s="58"/>
+      <c r="AK100" s="58"/>
+      <c r="AL100" s="58"/>
+      <c r="AM100" s="61"/>
+      <c r="AN100" s="51"/>
     </row>
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="100"/>
-      <c r="B101" s="105"/>
-      <c r="C101" s="106"/>
-      <c r="D101" s="107"/>
-      <c r="E101" s="108"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="106"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="109"/>
-      <c r="J101" s="108"/>
-      <c r="K101" s="110"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="108"/>
-      <c r="N101" s="110"/>
-      <c r="O101" s="107"/>
-      <c r="P101" s="108"/>
-      <c r="Q101" s="108"/>
-      <c r="R101" s="110"/>
-      <c r="S101" s="107"/>
-      <c r="T101" s="110"/>
-      <c r="U101" s="107"/>
-      <c r="V101" s="110"/>
-      <c r="W101" s="107"/>
-      <c r="X101" s="108"/>
-      <c r="Y101" s="108"/>
-      <c r="Z101" s="110"/>
-      <c r="AA101" s="107"/>
-      <c r="AB101" s="108"/>
-      <c r="AC101" s="110"/>
-      <c r="AD101" s="107"/>
-      <c r="AE101" s="108"/>
-      <c r="AF101" s="108"/>
-      <c r="AG101" s="108"/>
-      <c r="AH101" s="108"/>
-      <c r="AI101" s="108"/>
-      <c r="AJ101" s="108"/>
-      <c r="AK101" s="108"/>
-      <c r="AL101" s="108"/>
-      <c r="AM101" s="111"/>
-      <c r="AN101" s="101"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="57"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="57"/>
+      <c r="P101" s="58"/>
+      <c r="Q101" s="58"/>
+      <c r="R101" s="60"/>
+      <c r="S101" s="57"/>
+      <c r="T101" s="60"/>
+      <c r="U101" s="57"/>
+      <c r="V101" s="60"/>
+      <c r="W101" s="57"/>
+      <c r="X101" s="58"/>
+      <c r="Y101" s="58"/>
+      <c r="Z101" s="60"/>
+      <c r="AA101" s="57"/>
+      <c r="AB101" s="58"/>
+      <c r="AC101" s="60"/>
+      <c r="AD101" s="57"/>
+      <c r="AE101" s="58"/>
+      <c r="AF101" s="58"/>
+      <c r="AG101" s="58"/>
+      <c r="AH101" s="58"/>
+      <c r="AI101" s="58"/>
+      <c r="AJ101" s="58"/>
+      <c r="AK101" s="58"/>
+      <c r="AL101" s="58"/>
+      <c r="AM101" s="61"/>
+      <c r="AN101" s="51"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="100"/>
-      <c r="B102" s="105"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="107"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
-      <c r="G102" s="106"/>
-      <c r="H102" s="107"/>
-      <c r="I102" s="109"/>
-      <c r="J102" s="108"/>
-      <c r="K102" s="110"/>
-      <c r="L102" s="107"/>
-      <c r="M102" s="108"/>
-      <c r="N102" s="110"/>
-      <c r="O102" s="107"/>
-      <c r="P102" s="108"/>
-      <c r="Q102" s="108"/>
-      <c r="R102" s="110"/>
-      <c r="S102" s="107"/>
-      <c r="T102" s="110"/>
-      <c r="U102" s="107"/>
-      <c r="V102" s="110"/>
-      <c r="W102" s="107"/>
-      <c r="X102" s="108"/>
-      <c r="Y102" s="108"/>
-      <c r="Z102" s="110"/>
-      <c r="AA102" s="107"/>
-      <c r="AB102" s="108"/>
-      <c r="AC102" s="110"/>
-      <c r="AD102" s="107"/>
-      <c r="AE102" s="108"/>
-      <c r="AF102" s="108"/>
-      <c r="AG102" s="108"/>
-      <c r="AH102" s="108"/>
-      <c r="AI102" s="108"/>
-      <c r="AJ102" s="108"/>
-      <c r="AK102" s="108"/>
-      <c r="AL102" s="108"/>
-      <c r="AM102" s="111"/>
-      <c r="AN102" s="101"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="57"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="60"/>
+      <c r="O102" s="57"/>
+      <c r="P102" s="58"/>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="60"/>
+      <c r="S102" s="57"/>
+      <c r="T102" s="60"/>
+      <c r="U102" s="57"/>
+      <c r="V102" s="60"/>
+      <c r="W102" s="57"/>
+      <c r="X102" s="58"/>
+      <c r="Y102" s="58"/>
+      <c r="Z102" s="60"/>
+      <c r="AA102" s="57"/>
+      <c r="AB102" s="58"/>
+      <c r="AC102" s="60"/>
+      <c r="AD102" s="57"/>
+      <c r="AE102" s="58"/>
+      <c r="AF102" s="58"/>
+      <c r="AG102" s="58"/>
+      <c r="AH102" s="58"/>
+      <c r="AI102" s="58"/>
+      <c r="AJ102" s="58"/>
+      <c r="AK102" s="58"/>
+      <c r="AL102" s="58"/>
+      <c r="AM102" s="61"/>
+      <c r="AN102" s="51"/>
     </row>
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="100"/>
-      <c r="B103" s="105"/>
-      <c r="C103" s="106"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="106"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="109"/>
-      <c r="J103" s="108"/>
-      <c r="K103" s="110"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="108"/>
-      <c r="N103" s="110"/>
-      <c r="O103" s="107"/>
-      <c r="P103" s="108"/>
-      <c r="Q103" s="108"/>
-      <c r="R103" s="110"/>
-      <c r="S103" s="107"/>
-      <c r="T103" s="110"/>
-      <c r="U103" s="107"/>
-      <c r="V103" s="110"/>
-      <c r="W103" s="107"/>
-      <c r="X103" s="108"/>
-      <c r="Y103" s="108"/>
-      <c r="Z103" s="110"/>
-      <c r="AA103" s="107"/>
-      <c r="AB103" s="108"/>
-      <c r="AC103" s="110"/>
-      <c r="AD103" s="107"/>
-      <c r="AE103" s="108"/>
-      <c r="AF103" s="108"/>
-      <c r="AG103" s="108"/>
-      <c r="AH103" s="108"/>
-      <c r="AI103" s="108"/>
-      <c r="AJ103" s="108"/>
-      <c r="AK103" s="108"/>
-      <c r="AL103" s="108"/>
-      <c r="AM103" s="111"/>
-      <c r="AN103" s="101"/>
+      <c r="A103" s="50"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="57"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="60"/>
+      <c r="O103" s="57"/>
+      <c r="P103" s="58"/>
+      <c r="Q103" s="58"/>
+      <c r="R103" s="60"/>
+      <c r="S103" s="57"/>
+      <c r="T103" s="60"/>
+      <c r="U103" s="57"/>
+      <c r="V103" s="60"/>
+      <c r="W103" s="57"/>
+      <c r="X103" s="58"/>
+      <c r="Y103" s="58"/>
+      <c r="Z103" s="60"/>
+      <c r="AA103" s="57"/>
+      <c r="AB103" s="58"/>
+      <c r="AC103" s="60"/>
+      <c r="AD103" s="57"/>
+      <c r="AE103" s="58"/>
+      <c r="AF103" s="58"/>
+      <c r="AG103" s="58"/>
+      <c r="AH103" s="58"/>
+      <c r="AI103" s="58"/>
+      <c r="AJ103" s="58"/>
+      <c r="AK103" s="58"/>
+      <c r="AL103" s="58"/>
+      <c r="AM103" s="61"/>
+      <c r="AN103" s="51"/>
     </row>
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="100"/>
-      <c r="B104" s="105"/>
-      <c r="C104" s="106"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="106"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="109"/>
-      <c r="J104" s="108"/>
-      <c r="K104" s="110"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="108"/>
-      <c r="N104" s="110"/>
-      <c r="O104" s="107"/>
-      <c r="P104" s="108"/>
-      <c r="Q104" s="108"/>
-      <c r="R104" s="110"/>
-      <c r="S104" s="107"/>
-      <c r="T104" s="110"/>
-      <c r="U104" s="107"/>
-      <c r="V104" s="110"/>
-      <c r="W104" s="107"/>
-      <c r="X104" s="108"/>
-      <c r="Y104" s="108"/>
-      <c r="Z104" s="110"/>
-      <c r="AA104" s="107"/>
-      <c r="AB104" s="108"/>
-      <c r="AC104" s="110"/>
-      <c r="AD104" s="107"/>
-      <c r="AE104" s="108"/>
-      <c r="AF104" s="108"/>
-      <c r="AG104" s="108"/>
-      <c r="AH104" s="108"/>
-      <c r="AI104" s="108"/>
-      <c r="AJ104" s="108"/>
-      <c r="AK104" s="108"/>
-      <c r="AL104" s="108"/>
-      <c r="AM104" s="111"/>
-      <c r="AN104" s="101"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="57"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="60"/>
+      <c r="S104" s="57"/>
+      <c r="T104" s="60"/>
+      <c r="U104" s="57"/>
+      <c r="V104" s="60"/>
+      <c r="W104" s="57"/>
+      <c r="X104" s="58"/>
+      <c r="Y104" s="58"/>
+      <c r="Z104" s="60"/>
+      <c r="AA104" s="57"/>
+      <c r="AB104" s="58"/>
+      <c r="AC104" s="60"/>
+      <c r="AD104" s="57"/>
+      <c r="AE104" s="58"/>
+      <c r="AF104" s="58"/>
+      <c r="AG104" s="58"/>
+      <c r="AH104" s="58"/>
+      <c r="AI104" s="58"/>
+      <c r="AJ104" s="58"/>
+      <c r="AK104" s="58"/>
+      <c r="AL104" s="58"/>
+      <c r="AM104" s="61"/>
+      <c r="AN104" s="51"/>
     </row>
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="100"/>
-      <c r="B105" s="105"/>
-      <c r="C105" s="106"/>
-      <c r="D105" s="107"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="106"/>
-      <c r="H105" s="107"/>
-      <c r="I105" s="109"/>
-      <c r="J105" s="108"/>
-      <c r="K105" s="110"/>
-      <c r="L105" s="107"/>
-      <c r="M105" s="108"/>
-      <c r="N105" s="110"/>
-      <c r="O105" s="107"/>
-      <c r="P105" s="108"/>
-      <c r="Q105" s="108"/>
-      <c r="R105" s="110"/>
-      <c r="S105" s="107"/>
-      <c r="T105" s="110"/>
-      <c r="U105" s="107"/>
-      <c r="V105" s="110"/>
-      <c r="W105" s="107"/>
-      <c r="X105" s="108"/>
-      <c r="Y105" s="108"/>
-      <c r="Z105" s="110"/>
-      <c r="AA105" s="107"/>
-      <c r="AB105" s="108"/>
-      <c r="AC105" s="110"/>
-      <c r="AD105" s="107"/>
-      <c r="AE105" s="108"/>
-      <c r="AF105" s="108"/>
-      <c r="AG105" s="108"/>
-      <c r="AH105" s="108"/>
-      <c r="AI105" s="108"/>
-      <c r="AJ105" s="108"/>
-      <c r="AK105" s="108"/>
-      <c r="AL105" s="108"/>
-      <c r="AM105" s="111"/>
-      <c r="AN105" s="101"/>
+      <c r="A105" s="50"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="57"/>
+      <c r="P105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="60"/>
+      <c r="S105" s="57"/>
+      <c r="T105" s="60"/>
+      <c r="U105" s="57"/>
+      <c r="V105" s="60"/>
+      <c r="W105" s="57"/>
+      <c r="X105" s="58"/>
+      <c r="Y105" s="58"/>
+      <c r="Z105" s="60"/>
+      <c r="AA105" s="57"/>
+      <c r="AB105" s="58"/>
+      <c r="AC105" s="60"/>
+      <c r="AD105" s="57"/>
+      <c r="AE105" s="58"/>
+      <c r="AF105" s="58"/>
+      <c r="AG105" s="58"/>
+      <c r="AH105" s="58"/>
+      <c r="AI105" s="58"/>
+      <c r="AJ105" s="58"/>
+      <c r="AK105" s="58"/>
+      <c r="AL105" s="58"/>
+      <c r="AM105" s="61"/>
+      <c r="AN105" s="51"/>
     </row>
     <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="100"/>
-      <c r="B106" s="105"/>
-      <c r="C106" s="106"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="106"/>
-      <c r="H106" s="107"/>
-      <c r="I106" s="109"/>
-      <c r="J106" s="108"/>
-      <c r="K106" s="110"/>
-      <c r="L106" s="107"/>
-      <c r="M106" s="108"/>
-      <c r="N106" s="110"/>
-      <c r="O106" s="107"/>
-      <c r="P106" s="108"/>
-      <c r="Q106" s="108"/>
-      <c r="R106" s="110"/>
-      <c r="S106" s="107"/>
-      <c r="T106" s="110"/>
-      <c r="U106" s="107"/>
-      <c r="V106" s="110"/>
-      <c r="W106" s="107"/>
-      <c r="X106" s="108"/>
-      <c r="Y106" s="108"/>
-      <c r="Z106" s="110"/>
-      <c r="AA106" s="107"/>
-      <c r="AB106" s="108"/>
-      <c r="AC106" s="110"/>
-      <c r="AD106" s="107"/>
-      <c r="AE106" s="108"/>
-      <c r="AF106" s="108"/>
-      <c r="AG106" s="108"/>
-      <c r="AH106" s="108"/>
-      <c r="AI106" s="108"/>
-      <c r="AJ106" s="108"/>
-      <c r="AK106" s="108"/>
-      <c r="AL106" s="108"/>
-      <c r="AM106" s="111"/>
-      <c r="AN106" s="101"/>
+      <c r="A106" s="50"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="57"/>
+      <c r="M106" s="58"/>
+      <c r="N106" s="60"/>
+      <c r="O106" s="57"/>
+      <c r="P106" s="58"/>
+      <c r="Q106" s="58"/>
+      <c r="R106" s="60"/>
+      <c r="S106" s="57"/>
+      <c r="T106" s="60"/>
+      <c r="U106" s="57"/>
+      <c r="V106" s="60"/>
+      <c r="W106" s="57"/>
+      <c r="X106" s="58"/>
+      <c r="Y106" s="58"/>
+      <c r="Z106" s="60"/>
+      <c r="AA106" s="57"/>
+      <c r="AB106" s="58"/>
+      <c r="AC106" s="60"/>
+      <c r="AD106" s="57"/>
+      <c r="AE106" s="58"/>
+      <c r="AF106" s="58"/>
+      <c r="AG106" s="58"/>
+      <c r="AH106" s="58"/>
+      <c r="AI106" s="58"/>
+      <c r="AJ106" s="58"/>
+      <c r="AK106" s="58"/>
+      <c r="AL106" s="58"/>
+      <c r="AM106" s="61"/>
+      <c r="AN106" s="51"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="100"/>
-      <c r="B107" s="105"/>
-      <c r="C107" s="106"/>
-      <c r="D107" s="107"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="108"/>
-      <c r="G107" s="106"/>
-      <c r="H107" s="107"/>
-      <c r="I107" s="109"/>
-      <c r="J107" s="108"/>
-      <c r="K107" s="110"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="108"/>
-      <c r="N107" s="110"/>
-      <c r="O107" s="107"/>
-      <c r="P107" s="108"/>
-      <c r="Q107" s="108"/>
-      <c r="R107" s="110"/>
-      <c r="S107" s="107"/>
-      <c r="T107" s="110"/>
-      <c r="U107" s="107"/>
-      <c r="V107" s="110"/>
-      <c r="W107" s="107"/>
-      <c r="X107" s="108"/>
-      <c r="Y107" s="108"/>
-      <c r="Z107" s="110"/>
-      <c r="AA107" s="107"/>
-      <c r="AB107" s="108"/>
-      <c r="AC107" s="110"/>
-      <c r="AD107" s="107"/>
-      <c r="AE107" s="108"/>
-      <c r="AF107" s="108"/>
-      <c r="AG107" s="108"/>
-      <c r="AH107" s="108"/>
-      <c r="AI107" s="108"/>
-      <c r="AJ107" s="108"/>
-      <c r="AK107" s="108"/>
-      <c r="AL107" s="108"/>
-      <c r="AM107" s="111"/>
-      <c r="AN107" s="101"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="60"/>
+      <c r="O107" s="57"/>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="60"/>
+      <c r="S107" s="57"/>
+      <c r="T107" s="60"/>
+      <c r="U107" s="57"/>
+      <c r="V107" s="60"/>
+      <c r="W107" s="57"/>
+      <c r="X107" s="58"/>
+      <c r="Y107" s="58"/>
+      <c r="Z107" s="60"/>
+      <c r="AA107" s="57"/>
+      <c r="AB107" s="58"/>
+      <c r="AC107" s="60"/>
+      <c r="AD107" s="57"/>
+      <c r="AE107" s="58"/>
+      <c r="AF107" s="58"/>
+      <c r="AG107" s="58"/>
+      <c r="AH107" s="58"/>
+      <c r="AI107" s="58"/>
+      <c r="AJ107" s="58"/>
+      <c r="AK107" s="58"/>
+      <c r="AL107" s="58"/>
+      <c r="AM107" s="61"/>
+      <c r="AN107" s="51"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="100"/>
-      <c r="B108" s="105"/>
-      <c r="C108" s="106"/>
-      <c r="D108" s="107"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="106"/>
-      <c r="H108" s="107"/>
-      <c r="I108" s="109"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="110"/>
-      <c r="L108" s="107"/>
-      <c r="M108" s="108"/>
-      <c r="N108" s="110"/>
-      <c r="O108" s="107"/>
-      <c r="P108" s="108"/>
-      <c r="Q108" s="108"/>
-      <c r="R108" s="110"/>
-      <c r="S108" s="107"/>
-      <c r="T108" s="110"/>
-      <c r="U108" s="107"/>
-      <c r="V108" s="110"/>
-      <c r="W108" s="107"/>
-      <c r="X108" s="108"/>
-      <c r="Y108" s="108"/>
-      <c r="Z108" s="110"/>
-      <c r="AA108" s="107"/>
-      <c r="AB108" s="108"/>
-      <c r="AC108" s="110"/>
-      <c r="AD108" s="107"/>
-      <c r="AE108" s="108"/>
-      <c r="AF108" s="108"/>
-      <c r="AG108" s="108"/>
-      <c r="AH108" s="108"/>
-      <c r="AI108" s="108"/>
-      <c r="AJ108" s="108"/>
-      <c r="AK108" s="108"/>
-      <c r="AL108" s="108"/>
-      <c r="AM108" s="111"/>
-      <c r="AN108" s="101"/>
+      <c r="A108" s="50"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="60"/>
+      <c r="O108" s="57"/>
+      <c r="P108" s="58"/>
+      <c r="Q108" s="58"/>
+      <c r="R108" s="60"/>
+      <c r="S108" s="57"/>
+      <c r="T108" s="60"/>
+      <c r="U108" s="57"/>
+      <c r="V108" s="60"/>
+      <c r="W108" s="57"/>
+      <c r="X108" s="58"/>
+      <c r="Y108" s="58"/>
+      <c r="Z108" s="60"/>
+      <c r="AA108" s="57"/>
+      <c r="AB108" s="58"/>
+      <c r="AC108" s="60"/>
+      <c r="AD108" s="57"/>
+      <c r="AE108" s="58"/>
+      <c r="AF108" s="58"/>
+      <c r="AG108" s="58"/>
+      <c r="AH108" s="58"/>
+      <c r="AI108" s="58"/>
+      <c r="AJ108" s="58"/>
+      <c r="AK108" s="58"/>
+      <c r="AL108" s="58"/>
+      <c r="AM108" s="61"/>
+      <c r="AN108" s="51"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="100"/>
-      <c r="B109" s="105"/>
-      <c r="C109" s="106"/>
-      <c r="D109" s="107"/>
-      <c r="E109" s="108"/>
-      <c r="F109" s="108"/>
-      <c r="G109" s="106"/>
-      <c r="H109" s="107"/>
-      <c r="I109" s="109"/>
-      <c r="J109" s="108"/>
-      <c r="K109" s="110"/>
-      <c r="L109" s="107"/>
-      <c r="M109" s="108"/>
-      <c r="N109" s="110"/>
-      <c r="O109" s="107"/>
-      <c r="P109" s="108"/>
-      <c r="Q109" s="108"/>
-      <c r="R109" s="110"/>
-      <c r="S109" s="107"/>
-      <c r="T109" s="110"/>
-      <c r="U109" s="107"/>
-      <c r="V109" s="110"/>
-      <c r="W109" s="107"/>
-      <c r="X109" s="108"/>
-      <c r="Y109" s="108"/>
-      <c r="Z109" s="110"/>
-      <c r="AA109" s="107"/>
-      <c r="AB109" s="108"/>
-      <c r="AC109" s="110"/>
-      <c r="AD109" s="107"/>
-      <c r="AE109" s="108"/>
-      <c r="AF109" s="108"/>
-      <c r="AG109" s="108"/>
-      <c r="AH109" s="108"/>
-      <c r="AI109" s="108"/>
-      <c r="AJ109" s="108"/>
-      <c r="AK109" s="108"/>
-      <c r="AL109" s="108"/>
-      <c r="AM109" s="111"/>
-      <c r="AN109" s="101"/>
+      <c r="A109" s="50"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="60"/>
+      <c r="L109" s="57"/>
+      <c r="M109" s="58"/>
+      <c r="N109" s="60"/>
+      <c r="O109" s="57"/>
+      <c r="P109" s="58"/>
+      <c r="Q109" s="58"/>
+      <c r="R109" s="60"/>
+      <c r="S109" s="57"/>
+      <c r="T109" s="60"/>
+      <c r="U109" s="57"/>
+      <c r="V109" s="60"/>
+      <c r="W109" s="57"/>
+      <c r="X109" s="58"/>
+      <c r="Y109" s="58"/>
+      <c r="Z109" s="60"/>
+      <c r="AA109" s="57"/>
+      <c r="AB109" s="58"/>
+      <c r="AC109" s="60"/>
+      <c r="AD109" s="57"/>
+      <c r="AE109" s="58"/>
+      <c r="AF109" s="58"/>
+      <c r="AG109" s="58"/>
+      <c r="AH109" s="58"/>
+      <c r="AI109" s="58"/>
+      <c r="AJ109" s="58"/>
+      <c r="AK109" s="58"/>
+      <c r="AL109" s="58"/>
+      <c r="AM109" s="61"/>
+      <c r="AN109" s="51"/>
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="102"/>
-      <c r="B110" s="103"/>
-      <c r="C110" s="103"/>
-      <c r="D110" s="103"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="103"/>
-      <c r="I110" s="103"/>
-      <c r="J110" s="103"/>
-      <c r="K110" s="103"/>
-      <c r="L110" s="103"/>
-      <c r="M110" s="103"/>
-      <c r="N110" s="103"/>
-      <c r="O110" s="103"/>
-      <c r="P110" s="103"/>
-      <c r="Q110" s="103"/>
-      <c r="R110" s="103"/>
-      <c r="S110" s="103"/>
-      <c r="T110" s="103"/>
-      <c r="U110" s="103"/>
-      <c r="V110" s="103"/>
-      <c r="W110" s="103"/>
-      <c r="X110" s="103"/>
-      <c r="Y110" s="103"/>
-      <c r="Z110" s="103"/>
-      <c r="AA110" s="103"/>
-      <c r="AB110" s="103"/>
-      <c r="AC110" s="103"/>
-      <c r="AD110" s="103"/>
-      <c r="AE110" s="103"/>
-      <c r="AF110" s="103"/>
-      <c r="AG110" s="103"/>
-      <c r="AH110" s="103"/>
-      <c r="AI110" s="103"/>
-      <c r="AJ110" s="103"/>
-      <c r="AK110" s="103"/>
-      <c r="AL110" s="103"/>
-      <c r="AM110" s="103"/>
-      <c r="AN110" s="104"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="53"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="53"/>
+      <c r="N110" s="53"/>
+      <c r="O110" s="53"/>
+      <c r="P110" s="53"/>
+      <c r="Q110" s="53"/>
+      <c r="R110" s="53"/>
+      <c r="S110" s="53"/>
+      <c r="T110" s="53"/>
+      <c r="U110" s="53"/>
+      <c r="V110" s="53"/>
+      <c r="W110" s="53"/>
+      <c r="X110" s="53"/>
+      <c r="Y110" s="53"/>
+      <c r="Z110" s="53"/>
+      <c r="AA110" s="53"/>
+      <c r="AB110" s="53"/>
+      <c r="AC110" s="53"/>
+      <c r="AD110" s="53"/>
+      <c r="AE110" s="53"/>
+      <c r="AF110" s="53"/>
+      <c r="AG110" s="53"/>
+      <c r="AH110" s="53"/>
+      <c r="AI110" s="53"/>
+      <c r="AJ110" s="53"/>
+      <c r="AK110" s="53"/>
+      <c r="AL110" s="53"/>
+      <c r="AM110" s="53"/>
+      <c r="AN110" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -19924,152 +19959,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="62" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -21590,7 +21625,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="23"/>
@@ -21634,7 +21669,7 @@
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="112"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -21676,7 +21711,7 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="112"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="27"/>
       <c r="D43" s="32" t="s">
         <v>78</v>
@@ -21720,9 +21755,9 @@
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="112"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="42" t="s">
         <v>79</v>
       </c>
       <c r="E44" s="27"/>
@@ -21764,7 +21799,7 @@
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
-      <c r="B45" s="112"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -21806,7 +21841,7 @@
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
-      <c r="B46" s="112"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="27"/>
       <c r="D46" s="32" t="s">
         <v>80</v>
@@ -21850,9 +21885,9 @@
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
-      <c r="B47" s="112"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="76" t="s">
+      <c r="D47" s="42" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="27"/>
@@ -21894,9 +21929,9 @@
     </row>
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
-      <c r="B48" s="112"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="27"/>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="42" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="27"/>
@@ -22026,7 +22061,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="24"/>
       <c r="C51" s="27"/>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="42" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="27"/>
@@ -22070,7 +22105,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="24"/>
       <c r="C52" s="27"/>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="27"/>
@@ -22200,7 +22235,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="27"/>
@@ -22244,7 +22279,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="24"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="43" t="s">
         <v>43</v>
       </c>
       <c r="E56" s="27"/>
@@ -22374,7 +22409,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="24"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="27"/>
@@ -22418,7 +22453,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="24"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="43" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="27"/>
@@ -24916,152 +24951,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="62" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -26582,7 +26617,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="23"/>
@@ -26714,7 +26749,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E44" s="27"/>
@@ -26844,7 +26879,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="24"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="76" t="s">
+      <c r="D47" s="42" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="27"/>
@@ -26974,7 +27009,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="43" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="32"/>
@@ -27018,7 +27053,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="32"/>
@@ -27062,7 +27097,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="32"/>
@@ -27192,7 +27227,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="27"/>
@@ -27236,7 +27271,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="24"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="27"/>
@@ -27280,7 +27315,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="24"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E57" s="27"/>
@@ -27324,7 +27359,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="24"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="77" t="s">
+      <c r="D58" s="43" t="s">
         <v>34</v>
       </c>
       <c r="E58" s="27"/>
@@ -29528,152 +29563,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="62" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -31194,7 +31229,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -31282,7 +31317,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="8"/>
@@ -31326,7 +31361,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="117"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -31368,7 +31403,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="117"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -31454,7 +31489,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="77" t="s">
+      <c r="D47" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="27"/>
@@ -31498,7 +31533,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E48" s="27"/>
@@ -31542,7 +31577,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E49" s="27"/>
@@ -31586,7 +31621,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="43" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="27"/>
@@ -34168,152 +34203,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="62" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -35922,7 +35957,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="2"/>
@@ -35966,16 +36001,16 @@
       <c r="A44" s="6"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="115" t="s">
+      <c r="D44" s="63"/>
+      <c r="E44" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
@@ -36010,14 +36045,14 @@
       <c r="A45" s="6"/>
       <c r="B45" s="24"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
       <c r="N45" s="27"/>
@@ -36052,16 +36087,16 @@
       <c r="A46" s="6"/>
       <c r="B46" s="24"/>
       <c r="C46" s="27"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="115" t="s">
+      <c r="D46" s="63"/>
+      <c r="E46" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
       <c r="N46" s="27"/>
@@ -36096,14 +36131,14 @@
       <c r="A47" s="6"/>
       <c r="B47" s="24"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
@@ -36138,15 +36173,15 @@
       <c r="A48" s="6"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
-      <c r="E48" s="116" t="s">
+      <c r="E48" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="27"/>
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
@@ -36181,15 +36216,15 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="115" t="s">
+      <c r="E49" s="63"/>
+      <c r="F49" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -36224,13 +36259,13 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -36265,15 +36300,15 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="10"/>
-      <c r="E51" s="116" t="s">
+      <c r="E51" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -36308,15 +36343,15 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="115" t="s">
+      <c r="E52" s="63"/>
+      <c r="F52" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -36351,13 +36386,13 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="10"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="8"/>
@@ -36392,15 +36427,15 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
-      <c r="E54" s="116" t="s">
+      <c r="E54" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="8"/>
@@ -36435,15 +36470,15 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="10"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="115" t="s">
+      <c r="E55" s="63"/>
+      <c r="F55" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="8"/>
@@ -38806,152 +38841,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="62" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -40472,7 +40507,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="23"/>
@@ -40604,7 +40639,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="42" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="27"/>
@@ -40648,7 +40683,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="24"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="42" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="27"/>
@@ -40692,7 +40727,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="117"/>
+      <c r="D46" s="67"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -43440,152 +43475,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="62" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -45106,7 +45141,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="23"/>
@@ -45194,21 +45229,21 @@
       <c r="A43" s="6"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
@@ -45238,21 +45273,21 @@
       <c r="A44" s="6"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="115" t="s">
+      <c r="D44" s="64"/>
+      <c r="E44" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
@@ -45282,19 +45317,19 @@
       <c r="A45" s="6"/>
       <c r="B45" s="24"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
@@ -45324,21 +45359,21 @@
       <c r="A46" s="6"/>
       <c r="B46" s="24"/>
       <c r="C46" s="27"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
       <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
@@ -45368,19 +45403,19 @@
       <c r="A47" s="6"/>
       <c r="B47" s="24"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
@@ -45410,21 +45445,21 @@
       <c r="A48" s="6"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="116" t="s">
+      <c r="D48" s="38"/>
+      <c r="E48" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
@@ -45454,21 +45489,21 @@
       <c r="A49" s="6"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="115" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
@@ -45498,19 +45533,19 @@
       <c r="A50" s="6"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
@@ -45540,21 +45575,21 @@
       <c r="A51" s="6"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="116" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
@@ -45584,21 +45619,21 @@
       <c r="A52" s="6"/>
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="115" t="s">
+      <c r="D52" s="38"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
@@ -45628,19 +45663,19 @@
       <c r="A53" s="6"/>
       <c r="B53" s="24"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
       <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
       <c r="S53" s="27"/>
@@ -45670,21 +45705,21 @@
       <c r="A54" s="6"/>
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="116" t="s">
+      <c r="D54" s="38"/>
+      <c r="E54" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
       <c r="Q54" s="25"/>
       <c r="R54" s="25"/>
       <c r="S54" s="27"/>
@@ -45714,21 +45749,21 @@
       <c r="A55" s="6"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="115" t="s">
+      <c r="D55" s="38"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
       <c r="Q55" s="25"/>
       <c r="R55" s="25"/>
       <c r="S55" s="27"/>
@@ -45758,19 +45793,19 @@
       <c r="A56" s="6"/>
       <c r="B56" s="24"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
       <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
       <c r="S56" s="27"/>
@@ -45800,21 +45835,21 @@
       <c r="A57" s="6"/>
       <c r="B57" s="24"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="116" t="s">
+      <c r="D57" s="38"/>
+      <c r="E57" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="114"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="114"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="27"/>
@@ -45844,21 +45879,21 @@
       <c r="A58" s="6"/>
       <c r="B58" s="24"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="115" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="27"/>
@@ -45888,19 +45923,19 @@
       <c r="A59" s="6"/>
       <c r="B59" s="24"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
@@ -45930,21 +45965,21 @@
       <c r="A60" s="6"/>
       <c r="B60" s="24"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="116" t="s">
+      <c r="D60" s="38"/>
+      <c r="E60" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="114"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="27"/>
@@ -45974,21 +46009,21 @@
       <c r="A61" s="6"/>
       <c r="B61" s="24"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="115" t="s">
+      <c r="D61" s="38"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
       <c r="S61" s="27"/>
@@ -46018,19 +46053,19 @@
       <c r="A62" s="6"/>
       <c r="B62" s="24"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
@@ -48084,7 +48119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FDBAE-6220-4BAA-805C-58AC60A2548D}">
   <dimension ref="A1:AN106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
@@ -48094,152 +48129,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="80" t="s">
+      <c r="X1" s="78"/>
+      <c r="Y1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="62" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="57" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="119">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="49" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="84"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -49760,7 +49795,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="23"/>
@@ -49848,21 +49883,21 @@
       <c r="A43" s="6"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
@@ -49892,21 +49927,21 @@
       <c r="A44" s="6"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="115" t="s">
+      <c r="D44" s="64"/>
+      <c r="E44" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
@@ -49936,19 +49971,19 @@
       <c r="A45" s="6"/>
       <c r="B45" s="24"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
@@ -49978,21 +50013,21 @@
       <c r="A46" s="6"/>
       <c r="B46" s="24"/>
       <c r="C46" s="27"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
       <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
@@ -50022,19 +50057,19 @@
       <c r="A47" s="6"/>
       <c r="B47" s="24"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
@@ -50064,21 +50099,21 @@
       <c r="A48" s="6"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="116" t="s">
+      <c r="D48" s="38"/>
+      <c r="E48" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
@@ -50108,21 +50143,21 @@
       <c r="A49" s="6"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="115" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
@@ -50152,19 +50187,19 @@
       <c r="A50" s="6"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
@@ -50194,21 +50229,21 @@
       <c r="A51" s="6"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="116" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
@@ -50238,21 +50273,21 @@
       <c r="A52" s="6"/>
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="115" t="s">
+      <c r="D52" s="38"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
@@ -50282,19 +50317,19 @@
       <c r="A53" s="6"/>
       <c r="B53" s="24"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
       <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
       <c r="S53" s="27"/>
@@ -50324,21 +50359,21 @@
       <c r="A54" s="6"/>
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="116" t="s">
+      <c r="D54" s="38"/>
+      <c r="E54" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
       <c r="S54" s="27"/>
@@ -50368,21 +50403,21 @@
       <c r="A55" s="6"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="115" t="s">
+      <c r="D55" s="38"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
       <c r="S55" s="27"/>
@@ -50412,19 +50447,19 @@
       <c r="A56" s="6"/>
       <c r="B56" s="24"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
       <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
       <c r="S56" s="27"/>
@@ -50454,21 +50489,21 @@
       <c r="A57" s="6"/>
       <c r="B57" s="24"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="116" t="s">
+      <c r="D57" s="38"/>
+      <c r="E57" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="114"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="114"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="27"/>
@@ -50498,21 +50533,21 @@
       <c r="A58" s="6"/>
       <c r="B58" s="24"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="115" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="27"/>
@@ -50542,19 +50577,19 @@
       <c r="A59" s="6"/>
       <c r="B59" s="24"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
@@ -52578,6 +52613,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -52585,14 +52627,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
